--- a/excel/1.xlsx
+++ b/excel/1.xlsx
@@ -1239,7 +1239,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>电动汽车设计李玉善,刘宗锋 (1-8周) 车辆工程2018-1-4</t>
+          <t>电动汽车设计李玉善 (1-2,4-8周) 车辆工程2018-1-4</t>
         </is>
       </c>
       <c r="P7" t="inlineStr"/>
@@ -1259,7 +1259,7 @@
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr">
         <is>
-          <t>电动汽车设计李玉善,刘宗锋 (1-8周) 车辆工程2018-1-4</t>
+          <t>电动汽车设计李玉善 (1-8周) 车辆工程2018-1-4</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -1338,7 +1338,7 @@
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>液压、液力与气压传动刘俊龙,刘宗锋 (1-9周) 车辆工程2019-1-3</t>
+          <t>液压、液力与气压传动刘俊龙 (1-9周) 车辆工程2019-1-3</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>液压、液力与气压传动刘俊龙,刘宗锋 (1-9周) 车辆工程2019-1-3</t>
+          <t>液压、液力与气压传动刘俊龙 (1-9周) 车辆工程2019-1-3</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr"/>
@@ -1557,7 +1557,7 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>地球化学陈桥 (1-4周) 地质工程2019-1-3</t>
+          <t>地球化学陈桥 (1周) 地质工程2019-1-3</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1769,7 +1769,7 @@
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr">
         <is>
-          <t>应用统计学(A)马媛 (1-8周) 工商管理2019-1-2</t>
+          <t>应用统计学(A)马媛 (1,3-8周) 工商管理2019-1-2</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
@@ -1777,7 +1777,11 @@
           <t>服务营销高军红 (1-9周) 工商管理2019-1-2</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>运筹学（B）庄晓雯 (1周) 工商管理2019-2</t>
+        </is>
+      </c>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
@@ -1877,7 +1881,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>采矿科学与技术（双语）蒋力帅 (1-9周) 采矿工程2018-1-2</t>
+          <t>采矿科学与技术（双语）蒋力帅 (1-2,4-9周) 采矿工程2018-1-2</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -2096,7 +2100,7 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>地球化学陈桥 (1-8周) 地质工程2019-1-3</t>
+          <t>地球化学陈桥 (1周) 地质工程2019-1-3</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -2631,7 +2635,7 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
+          <t>马克思主义基本原理冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -2670,12 +2674,12 @@
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>数据库技术基础张永华 (1-8周) 临班77</t>
+          <t>数据库技术基础张永华 (1-2,4-8周) 临班77</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>数据库技术基础张永华 (1-8周) 临班77</t>
+          <t>数据库技术基础张永华 (1-2,4-8周) 临班77</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr"/>
@@ -3297,7 +3301,7 @@
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
+          <t>马克思主义基本原理冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
@@ -3388,11 +3392,7 @@
           <t>薪酬与绩效管理周志刚 (1-9周) 工商管理2019-1-2</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>运筹学（B）庄晓雯 (1-13周) 工商管理2019-2</t>
-        </is>
-      </c>
+      <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
@@ -3449,7 +3449,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论贾强,张蕾 (1-12周) 机械设计制造及其自动化2020-1-4</t>
+          <t>马克思主义基本原理贾强,张蕾 (1-12周) 机械设计制造及其自动化2020-1-4</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
+          <t>马克思主义基本原理尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
         </is>
       </c>
       <c r="U36" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论吴华眉 (1-12周) 测绘工程2020-5班,遥感科学与技术2020-1-3</t>
+          <t>马克思主义基本原理吴华眉 (1-12周) 测绘工程2020-5班,遥感科学与技术2020-1-3</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -3666,7 +3666,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论刘丽威 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
+          <t>马克思主义基本原理刘丽威 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
@@ -5376,7 +5376,7 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>岩石学孔凡梅,王雪 (1-4周) 水文与水资源工程2020-2</t>
+          <t>岩石学孔凡梅,王雪 (1-3周) 水文与水资源工程2020-2</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
+          <t>马克思主义基本原理尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -5453,7 +5453,7 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论魏丽萍 (1-12周) 物流管理2020-1-2班,国际经济与贸易2020-1-2</t>
+          <t>马克思主义基本原理魏丽萍 (1-12周) 物流管理2020-1-2班,国际经济与贸易2020-1-2</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论王建志 (1-12周) 金融学2020-1-2班,会计学2020-1-2</t>
+          <t>马克思主义基本原理王建志 (1-12周) 金融学2020-1-2班,会计学2020-1-2</t>
         </is>
       </c>
       <c r="T63" t="inlineStr"/>
@@ -5564,7 +5564,11 @@
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>采矿学黄万朋 (1-8周) 采矿工程（智能开采方向）2019-2</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
@@ -6881,7 +6885,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）徐岩 (1-4,6-13周) 采矿工程（宋振骐班）</t>
+          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
@@ -6899,7 +6903,7 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）徐岩 (1-4,6-13周) 采矿工程（宋振骐班）</t>
+          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
         </is>
       </c>
       <c r="N85" t="inlineStr"/>

--- a/excel/1.xlsx
+++ b/excel/1.xlsx
@@ -1165,7 +1165,7 @@
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr">
         <is>
-          <t>粉末冶金学谢鲲 (1-8周) 金属材料工程2018-1-3</t>
+          <t>粉末冶金学谢鲲 (1-7周) 金属材料工程2018-1-3</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>工程测量景冬 (1-9周) 采矿工程（智能开采方向）2019-2</t>
+          <t>工程测量景冬 (1-7,9周) 采矿工程（智能开采方向）2019-2</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
@@ -1369,12 +1369,12 @@
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>中级财务会计（II）郝敏 (1-12周) 会计学(辅修) 2019版</t>
+          <t>中级财务会计（II）郝敏 (1-2,4-12周) 会计学(辅修) 2019版</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>中级财务会计（II）郝敏 (1-12周) 会计学(辅修) 2019版</t>
+          <t>中级财务会计（II）郝敏 (1-2,4-12周) 会计学(辅修) 2019版</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr"/>
@@ -1734,7 +1734,7 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>证券投资学周衍平 (1-9周) 投资学2019-1-2</t>
+          <t>证券投资学周衍平 (1-4,6-9周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2027,7 +2027,7 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>构造地质学张丽萍 (1-8周) 勘查技术与工程2019-1-2</t>
+          <t>构造地质学张丽萍 (1-5,7-8周) 勘查技术与工程2019-1-2</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -2287,7 +2287,7 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>概率论与数理统计黄珍 (1-12周) 测绘工程2020-4-5</t>
+          <t>概率论与数理统计黄珍 (1-3,5-12周) 测绘工程2020-4-5</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -2320,11 +2320,7 @@
           <t>管理会计刘立华 (1-12周) 会计学2019-1-2</t>
         </is>
       </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>智能设备监控系统王亮 (1-3,8-12周) 机械电子工程(留学生)2018</t>
-        </is>
-      </c>
+      <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr">
         <is>
           <t>岩石学吴靖,杨仁超 (1-8周) 地质工程2020-3</t>
@@ -2490,12 +2486,12 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>管理学（B） 田莹 (1-3,7-12周) 机械电子工程2018-1-3</t>
+          <t>管理学（B） 田莹 (1-3,8-12周) 机械电子工程2018-1-3</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>管理学（B） 田莹 (1-3,7-12周) 机械电子工程2018-4-5</t>
+          <t>管理学（B） 田莹 (1-3,8-12周) 机械电子工程2018-4-5</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
@@ -2507,7 +2503,7 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>管理学（B） 田莹 (1-3,7-12周) 机械电子工程2018-4-5</t>
+          <t>管理学（B） 田莹 (1-3,8-12周) 机械电子工程2018-4-5</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -2516,7 +2512,7 @@
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr">
         <is>
-          <t>管理学（B） 田莹 (1-3,7-12周) 机械电子工程2018-1-3</t>
+          <t>管理学（B） 田莹 (1-3,8-12周) 机械电子工程2018-1-3</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr"/>
@@ -2674,12 +2670,12 @@
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>数据库技术基础张永华 (1-2,4-8周) 临班77</t>
+          <t>数据库技术基础张永华 (1-2,4-5,7-8周) 临班77</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>数据库技术基础张永华 (1-2,4-8周) 临班77</t>
+          <t>数据库技术基础张永华 (1-2,4-5,7-8周) 临班77</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr"/>
@@ -3042,7 +3038,7 @@
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr">
         <is>
-          <t>工程测量景冬 (1-9周) 采矿工程（智能开采方向）2019-2</t>
+          <t>工程测量景冬 (1-7,9周) 采矿工程（智能开采方向）2019-2</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
@@ -3084,12 +3080,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>外贸英文函电于晓燕 (1-9周) 国际经济与贸易2019-1-2</t>
+          <t>外贸英文函电于晓燕 (1-5,7-9周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>商务英语口语于晓燕 (1-9周) 国际经济与贸易2019-1-2</t>
+          <t>商务英语口语于晓燕 (1-5,7-9周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -3126,7 +3122,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>国际金融孙江永 (1-9周) 国际经济与贸易2019-1-2</t>
+          <t>国际金融孙江永 (1-4周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -3153,7 +3149,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>国际服务贸易李丽丽 (1-9周) 国际经济与贸易2019-1-2</t>
+          <t>国际服务贸易李丽丽 (1-4周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr"/>
@@ -3467,13 +3463,13 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>构造地质学金爱文 (1-10周) 资源勘查工程（海洋矿产资源方向）2019</t>
+          <t>构造地质学金爱文 (1-8,10周) 资源勘查工程（海洋矿产资源方向）2019</t>
         </is>
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>岩石学樊爱萍,杨仁超 (1-8周) 地质工程2020-2</t>
+          <t>岩石学樊爱萍,杨仁超 (1-4,6-7周) 地质工程2020-2</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -3666,7 +3662,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>马克思主义基本原理刘丽威 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
+          <t>马克思主义基本原理刘丽威 (1-4,6-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
@@ -3926,7 +3922,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>工程测量翟敏 (1-9周) 采矿工程2019-4</t>
+          <t>工程测量翟敏 (1-6,8-9周) 采矿工程2019-4</t>
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
@@ -4023,7 +4019,7 @@
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr">
         <is>
-          <t>采矿科学与技术（双语）蒋力帅 (1-9周) 采矿工程2018-1-2</t>
+          <t>采矿科学与技术（双语）蒋力帅 (1-3,5-9周) 采矿工程2018-1-2</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
@@ -4131,7 +4127,7 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>环境工程微生物（双语）高宇 (1-9周) 环境工程2019-3</t>
+          <t>环境工程微生物（双语）高宇 (1-8周) 环境工程2019-3</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -4387,11 +4383,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>几何量公差孙静 (1-9周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -4405,11 +4397,7 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>几何量公差孙静 (1-9周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
@@ -4446,7 +4434,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>构造地质学张丽萍 (1-6周) 勘查技术与工程2019-1-2</t>
+          <t>构造地质学张丽萍 (1-5周) 勘查技术与工程2019-1-2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4525,11 +4513,7 @@
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>智能设备监控系统王亮 (1-3,8-12周) 机械电子工程(留学生)2018</t>
-        </is>
-      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -4664,7 +4648,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>铸造工艺学王淑峰 (1-8周) 金属材料工程2018-1-3</t>
+          <t>铸造工艺学王淑峰 (1-5,7-8周) 金属材料工程2018-1-3</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -4860,7 +4844,7 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>高分子化学韩永芹 (1-9周) 材料化学2019-1-2</t>
+          <t>高分子化学韩永芹 (1-8周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="N54" t="inlineStr"/>
@@ -4970,7 +4954,7 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>会计学(B)刘英姿 (1-8周) 工商管理2020-1-2</t>
+          <t>会计学(B)刘英姿 (1-7周) 工商管理2020-1-2</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -5200,7 +5184,7 @@
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr">
         <is>
-          <t>生产计划与管理 田莹 (1-2,7-12周) 机械设计制造及其自动化2018-1-3</t>
+          <t>生产计划与管理 田莹 (1-2,8-12周) 机械设计制造及其自动化2018-1-3</t>
         </is>
       </c>
       <c r="U59" t="inlineStr"/>
@@ -5217,7 +5201,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>生产计划与管理 田莹 (1-2,7-12周) 机械设计制造及其自动化2018-1-3</t>
+          <t>生产计划与管理 田莹 (1-2,8-12周) 机械设计制造及其自动化2018-1-3</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr"/>
@@ -5399,7 +5383,7 @@
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr">
         <is>
-          <t>国际经济法学韩天竹,牛哲莉 (1-16周) 法学2019-1-3</t>
+          <t>国际经济法学韩天竹,牛哲莉 (1-6,8周) 法学2019-1-3</t>
         </is>
       </c>
       <c r="U62" t="inlineStr"/>
@@ -5440,7 +5424,7 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>构造地质学金爱文 (1-10周) 资源勘查工程（海洋矿产资源方向）2019</t>
+          <t>构造地质学金爱文 (1-8,10周) 资源勘查工程（海洋矿产资源方向）2019</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -5537,7 +5521,7 @@
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr">
         <is>
-          <t>构造地质学张丽萍 (1-8周) 勘查技术与工程2019-1-2</t>
+          <t>构造地质学张丽萍 (1-3周) 勘查技术与工程2019-1-2</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr"/>
@@ -6116,7 +6100,7 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>化工仪表及自动化牛海丽 (1-7,10周) 生物工程2019-1-2</t>
+          <t>化工仪表及自动化牛海丽 (1-3,5-7,10周) 生物工程2019-1-2</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -6147,7 +6131,7 @@
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr">
         <is>
-          <t>化工仪表及自动化牛海丽 (1-7,10周) 生物工程2019-1-2</t>
+          <t>化工仪表及自动化牛海丽 (1-4,6-7,10周) 生物工程2019-1-2</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr"/>

--- a/excel/1.xlsx
+++ b/excel/1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK86"/>
+  <dimension ref="A1:AK98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,11 +768,15 @@
       <c r="AF2" t="n">
         <v>910</v>
       </c>
-      <c r="AG2" t="n">
-        <v>102</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>304</v>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0102</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0304</t>
+        </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
@@ -797,64 +801,44 @@
           <t>J14-328室</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>个人理财刘鹏 (1-9周) 投资学2019-1-2</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>经济法(B)张伟 (1-8周) 会计学2020-1-2</t>
+          <t>金融工程学张建刚 (1-9周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>电子商务专业英语文献阅读孙丽华 (1-9周) 电子商务2019-2</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>国际贸易理论与实务李丽丽 (1-9周) 电子商务2019-1-2</t>
+          <t>矿井设计张新国 (1-9周) 采矿工程（智能开采方向）2019-2</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>个人理财刘鹏 (1-9周) 投资学2019-1-2</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>经济法(B)张伟 (1-8周) 会计学2020-1-2</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>工程测量李艳艳 (1-9周) 采矿工程（智能开采方向）2019-1</t>
-        </is>
-      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
-          <t>整合营销传播吕晓菲 (1-9周) 工商管理2018-1-2</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>国际贸易理论与实务李丽丽 (1-9周) 电子商务2019-1-2</t>
-        </is>
-      </c>
+          <t>电子商务专业英语文献阅读孙丽华 (1-9周) 电子商务2019-2</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>采矿学李占海 (1-11周) 采矿工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
@@ -880,89 +864,57 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工程流体力学冯太 (1-5周) 车辆工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>精益生产贾顺 (1-8周) 工业工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>可靠性工程于师建 (1-8周) 安全工程2019-1-4</t>
-        </is>
-      </c>
+          <t>模糊数学孟娜 (1-8周) 安全工程2019-1-4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>应用统计学(A)赵峰 (1-6周) 工商管理(社会体育指导与管理)2019</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>通风工程李崇山 (1-8周) 安全工程2019-1-4</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>爆破安全王海亮 (1-5周) 安全工程2019-1-4</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>力学学科前沿房凯 (1-4周) 工程力学2018-1-3</t>
+          <t>化工过程安全胡相明 (1-9周) 安全工程2019-1-2</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>工程流体力学冯太 (1-5周) 车辆工程2019-1-2</t>
+          <t>模糊数学孟娜 (1-8周) 安全工程2019-1-4</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>可靠性工程于师建 (1-8周) 安全工程2019-1-4</t>
+          <t>机械与电气安全孙彪 (1-4周) 安全工程2019-1-4</t>
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>工程热力学与传热学董晓素 (1-12周) 安全工程2020-5</t>
-        </is>
-      </c>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
-          <t>岩体力学王俊 (1-5周) 采矿工程（智能开采方向）2019-1-2</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>地下工程概论王同旭 (1-4周) 工程力学2018-1-3</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>弹性力学马志涛 (1-12周) 工程力学2019-1-2</t>
-        </is>
-      </c>
+          <t>通风工程李崇山 (1-8周) 安全工程2019-1-4</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>爆破安全王海亮 (1-5周) 安全工程2019-1-4</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>环境工程微生物（双语）陆洪省 (1-9周) 环境工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr">
         <is>
-          <t>重大危险源辨识与危害分析刘国明 (1-3周) 安全工程2019-3-4</t>
+          <t>化工过程安全胡相明 (1-9周) 安全工程2019-1-2</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>重大危险源辨识与危害分析于岩斌 (1-6周) 安全工程2019-1-2</t>
+          <t>机械与电气安全孙彪 (1-4周) 安全工程2019-1-4</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr"/>
@@ -989,29 +941,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>内部控制崔树德 (1-9周) 会计学2019-1-2</t>
+          <t>数据挖掘张福平 (1-9周) 电子商务2019-2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>经济法（B）王彩霞 (1-9周) 工商管理2018-1-2</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>应用统计学（C）赵峰 (1-8周) 电子商务2019-1-2</t>
-        </is>
-      </c>
+          <t>证券投资学(A)姜爱萍 (1-10周) 金融学2020-1-2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>财务分析张咏梅 (1-9周) 会计学2019-1</t>
+          <t>市场调查与预测宋平 (1-9周) 工商管理(社会体育指导与管理)2019</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>仓储管理与库存控制饶卫振 (1-9周) 物流管理2019-1-2</t>
+          <t>市场调查与预测宋平 (1-9周) 工商管理2019-1-2</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -1019,82 +967,78 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>内部控制崔树德 (1-9周) 会计学2019-1-2</t>
+          <t>有机化学崔蓝月 (1-5周) 高分子材料与工程2020-2</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>中央银行学闻德美 (1-9周) 金融学2018-1-2</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>应用统计学（C）赵峰 (1-8周) 电子商务2019-1-2</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>电路陈旭 (1-10周) 电气工程及其自动化2020-3-4</t>
-        </is>
-      </c>
+          <t>证券投资学(A)姜爱萍 (1-10周) 金融学2020-1-2</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>电子商务杨磊 (1-8周) 临班65</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
-          <t>财务分析张咏梅 (1-9周) 会计学2019-1</t>
+          <t>市场调查与预测宋平 (1-9周) 工商管理(社会体育指导与管理)2019</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>仓储管理与库存控制饶卫振 (1-9周) 物流管理2019-1-2</t>
+          <t>市场调查与预测宋平 (1-9周) 工商管理2019-1-2</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>能源行业投资专题*武传宝 (1-9周) 投资学2018-1-2</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>应用统计学(A)赵峰 (1-6周) 工商管理(社会体育指导与管理)2019</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>证券投资学周衍平 (1-9周) 投资学2019-1-2</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>中央银行学闻德美 (1-9周) 金融学2018-1-2</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr"/>
+          <t>物流管理信息系统曾丽君 (1-7周) 物流管理2020-1</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>电子商务杨磊 (1-8周) 临班66</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>有机化学崔蓝月 (1-5周) 高分子材料与工程2020-2</t>
+        </is>
+      </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>外贸英文函电（双语课程）于晓燕 (1-8周) 国际经济与贸易(辅修)2019</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>外贸英文函电（双语课程）于晓燕 (1-8周) 国际经济与贸易(辅修)2019</t>
+        </is>
+      </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>财务管理（A）韩沚清 (1-12周) 会计学(辅修) 2019版</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>财务管理（A）韩沚清 (1-12周) 会计学(辅修) 2019版</t>
-        </is>
-      </c>
+          <t>外贸英文函电（双语课程）于晓燕 (1-8周) 国际经济与贸易(辅修)2019</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>管理会计郇冬至 (1-12周) 会计学(辅修) 2019版</t>
+          <t>国际贸易实务刘本玲 (1-12周) 国际经济与贸易(辅修)2019</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>管理会计郇冬至 (1-12周) 会计学(辅修) 2019版</t>
+          <t>国际贸易实务刘本玲 (1-12周) 国际经济与贸易(辅修)2019</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr"/>
@@ -1110,71 +1054,71 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>物理化学（A）刘蕾 (1-8周) 高分子材料与工程2020-1-3</t>
+          <t>矿山压力与岩层控制顾士坦 (1-5周) 采矿工程2019-4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>高分子化学白瑞钦 (1-8周) 高分子材料与工程2019-1-2</t>
+          <t>材料分析测试技术刘洪权 (1-6周) 金属材料工程2019-4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>高分子化学韩永芹 (1-9周) 材料化学2019-1-2</t>
+          <t>材料分析测试技术刘洪权 (1-6周) 金属材料工程2019-5</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>粉末冶金学谢鲲 (1-8周) 金属材料工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>材料腐蚀与防护岳丽杰 (1-9周) 金属材料工程2019-1-2</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>节能原理与技术周振峰 (1-9周) 能源与动力工程2019-1-3</t>
+          <t>材料分析测试技术刘洪权 (1-6周) 金属材料工程2019-5</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>专业英语杨坤 (1-8周) 工程力学2018-1-3</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>矿山压力与岩层控制顾士坦 (1-5周) 采矿工程2019-4</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>无损检测李桂杰 (1-6,8-9周) 金属材料工程2018-1-3</t>
+          <t>材料分析测试技术刘洪权 (1-6周) 金属材料工程2019-4</t>
         </is>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
-          <t>结构化学孙海清 (1-9周) 材料化学2019-1-2</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>高分子化学韩永芹 (1-9周) 材料化学2019-1-2</t>
-        </is>
-      </c>
+          <t>材料腐蚀与防护岳丽杰 (1-9周) 金属材料工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>材料分析测试技术刘洪权 (1-6周) 金属材料工程2019-5</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>粉末冶金学谢鲲 (1-7周) 金属材料工程2018-1-3</t>
-        </is>
-      </c>
+      <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr">
         <is>
-          <t>高分子化学白瑞钦 (1-8周) 高分子材料与工程2019-1-2</t>
+          <t>海图制图王瑞富 (1-10周) 测绘工程2020-1-5</t>
         </is>
       </c>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>材料分析测试技术刘洪权 (1-6周) 金属材料工程2019-4</t>
+        </is>
+      </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
@@ -1182,10 +1126,26 @@
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>中级财务会计（I）郝敏,吴文文 (1-12周) 会计学(辅修)2020</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>中级财务会计（I）郝敏,吴文文 (1-12周) 会计学(辅修)2020</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>应用统计学王家坤 (1-11周) 会计学(辅修)2020</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>应用统计学王家坤 (1-11周) 会计学(辅修)2020</t>
+        </is>
+      </c>
       <c r="AK6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -1197,31 +1157,27 @@
           <t>J14-109室</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>基础工业工程刘兆霞 (1-8周) 工业工程2020-1-2</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>物联网+智慧矿山刘立民 (1-4周) 采矿工程（智能开采方向）2019-1-2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>物流学赵鲁华 (1-9周) 交通运输2019-1-2</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>结构力学杜烨 (1-12周) 交通工程2019-1-2</t>
-        </is>
-      </c>
+          <t>矿井设计秦忠诚 (1-5周) 采矿工程2019-3-4</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>地下工程概论王同旭 (1-4周) 工程力学2018-1-3</t>
+          <t>人力资源管理袁清和 (1-8周) 工业工程2020-1-2</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>采矿科学与技术（双语）朱恒忠 (1-5周) 采矿工程（智能开采）2018-1-3</t>
+          <t>矿井通风与安全王刚 (1-10周) 采矿工程2019-3-4</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -1229,47 +1185,43 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>精益生产贾顺 (1-8周) 工业工程2018-1-3</t>
+          <t>安全管理学李兴华 (1-4周) 工业工程2019-1-2</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>基础工业工程刘兆霞 (1-8周) 工业工程2020-1-2</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>电动汽车设计李玉善 (1-2,4-8周) 车辆工程2018-1-4</t>
-        </is>
-      </c>
+          <t>物联网+智慧矿山刘立民 (1-4周) 采矿工程（智能开采方向）2019-1-2</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>科学研究方法王俊 (1-4周) 采矿工程2020-4</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>矿井设计秦忠诚 (1-5周) 采矿工程2019-3-4</t>
+        </is>
+      </c>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>物流学赵鲁华 (1-9周) 交通运输2019-1-2</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>结构力学杜烨 (1-12周) 交通工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr">
         <is>
-          <t>电动汽车设计李玉善 (1-8周) 车辆工程2018-1-4</t>
+          <t>采煤工艺学栾恒杰 (1-4周) 采矿工程2019-3-4</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>物流配送系统规划冯夕文 (1-8周) 工业工程2019-1-2</t>
+          <t>科学研究方法王俊 (1-4周) 采矿工程2020-4</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>专业英语杨坤 (1-8周) 工程力学2018-1-3</t>
+          <t>矿井通风与安全王刚 (1-10周) 采矿工程2019-3-4</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr"/>
@@ -1296,94 +1248,106 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>现代物流前沿专题姜力文 (1-9周) 物流管理2019-1-2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>运筹学（C）饶卫振 (1-9周) 投资学2019-1-2</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>公共投资学张伟 (1-9周) 投资学2019-1-2</t>
-        </is>
-      </c>
+          <t>高级财务会计韩沚清 (1-9周) 会计学2019-1-2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>矿山压力与岩层控制尹增德 (1-5周) 安全工程2019-1-4</t>
+          <t>会计信息系统（A）崔树德 (1-14周) 会计学2019-1-2</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>整合营销传播吕晓菲 (1-9周) 工商管理2018-1-2</t>
+          <t>国际会计准则(双语)张月玲 (1-9周) 会计学2019-1-2</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>高级财务会计韩沚清 (1-9周) 会计学2019-1-2</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>运筹学（C）饶卫振 (1-9周) 投资学2019-1-2</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>工程测量景冬 (1-7,9周) 采矿工程（智能开采方向）2019-2</t>
-        </is>
-      </c>
+          <t>财务管理(A)郇冬至 (1-10周) 工商管理2020-1-2</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>液压、液力与气压传动刘俊龙 (1-9周) 车辆工程2019-1-3</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>矿山压力与岩层控制尹增德 (1-5周) 安全工程2019-1-4</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>国际会计准则(双语)张月玲 (1-9周) 会计学2019-1-2</t>
+        </is>
+      </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>博弈论与信息经济学张伟 (1-9周) 金融学2018-1-2</t>
+          <t>矿山灾害预防与控制孙文斌 (1-5周) 安全工程2019-1-2</t>
         </is>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>高级财务会计韩沚清 (1-9周) 会计学2019-1-2</t>
+        </is>
+      </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>采矿学王玉和 (1-5周) 采矿工程2019-1-2</t>
+          <t>金融专业英语闻德美 (1-9周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>液压、液力与气压传动刘俊龙 (1-9周) 车辆工程2019-1-3</t>
+          <t>财务管理(A)郇冬至 (1-12周) 工商管理2020-1-2</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>中级财务会计（II）郝敏 (1-2,4-12周) 会计学(辅修) 2019版</t>
+          <t>税务会计与税务筹划郭令秀 (1-8周) 会计学(辅修)2019</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>中级财务会计（II）郝敏 (1-2,4-12周) 会计学(辅修) 2019版</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr"/>
+          <t>税务会计与税务筹划郭令秀 (1-8周) 会计学(辅修)2019</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>EXCEL财务应用赵桐 (1-12周) 会计学(辅修)2019</t>
+        </is>
+      </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>审计学刘英姿 (1-12周) 会计学(辅修)2019</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>审计学刘英姿 (1-12周) 会计学(辅修)2019</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>高级财务会计花双莲 (1-12周) 会计学(辅修)2019</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>高级财务会计花双莲 (1-12周) 会计学(辅修)2019</t>
+        </is>
+      </c>
       <c r="AK8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -1395,72 +1359,36 @@
           <t>J14-113室</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>单片机原理与接口技术吴清收 (1-8周) 机械电子工程2019-1-3</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>复杂煤层开采秦忠诚 (1-5周) 采矿工程2018-1-6</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>热工测量及仪表郭兰兰 (1-9周) 能源与动力工程2019-1-3</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>工程流体力学刘冰 (1-7周) 机械电子工程2019-3</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>岩体力学谭云亮 (1-5周) 采矿工程2019-1</t>
-        </is>
-      </c>
+          <t>车用电机原理及应用李学慧 (1-8周) 车辆工程2019-1-3</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>物流配送系统规划冯夕文 (1-8周) 工业工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>采矿学黄万朋 (1-8周) 采矿工程（智能开采方向）2019-2</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>机电传动控制谷明霞 (1-9周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>工程流体力学刘冰 (1-7周) 机械电子工程2019-3</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>单片机原理与接口技术吴清收 (1-8周) 机械电子工程2019-1-3</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>车用电机原理及应用李学慧 (1-8周) 车辆工程2019-1-3</t>
+        </is>
+      </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>传热学马晓彤 (1-9周) 能源与动力工程2019-3</t>
-        </is>
-      </c>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
@@ -1487,49 +1415,69 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>工程概论王海鑫 (1-8周) 遥感科学与技术2020-1-3</t>
+          <t>海洋地球物理支鹏遥 (1-8周) 测绘工程(海洋测绘)2019-1-2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>物理大地测量学基础林淼 (1-9周) 测绘工程2019-1-3</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Python 程序设计刘洪强 (1-8周) 地理信息科学2019-1-3</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>工程测量学刘尚国 (1-12周) 测绘工程2019-3</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>人文地理学徐春达 (1-8周) 地理信息科学2020-1-3</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>遥感原理与应用肖兴媛 (1-12周) 测绘工程2019-1-3</t>
-        </is>
-      </c>
+          <t>GIS软件与应用牟乃夏 (1-8周) 地理信息科学2020-1-2</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>地球科学概论张红日 (1-8周) 测绘工程2020-1-5</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>大地测量学基础韩晓冬 (1-14周) 测绘工程2019-1</t>
+          <t>海洋地球物理支鹏遥 (1-8周) 测绘工程(海洋测绘)2019-1-2</t>
         </is>
       </c>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>物理大地测量学基础林淼 (1-9周) 测绘工程2019-1-3</t>
+        </is>
+      </c>
       <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>海洋地球物理支鹏遥 (1-8周) 测绘工程(海洋测绘)2019-1-2</t>
+        </is>
+      </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>人文地理学徐春达 (1-8周) 地理信息科学2020-1-3</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>大地测量学基础郭英 (1-14周) 测绘工程2019-2</t>
-        </is>
-      </c>
+          <t>GIS软件与应用牟乃夏 (1-8周) 地理信息科学2020-1-2</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>地球科学概论张红日 (1-8周) 测绘工程2020-1-5</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
@@ -1557,7 +1505,7 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>地球化学陈桥 (1周) 地质工程2019-1-3</t>
+          <t>结晶学与矿物学杜龙,毛光周 (1-4周) 资源勘查工程2021-1-2</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1567,15 +1515,19 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>结晶学与矿物学李旭平 (1-8周) 资源勘查工程2021-3</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>水环境化学夏璐 (1-8周) 水文与水资源工程2020-1-2</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>地质素描杜龙 (1-4周) 资源勘查工程2021-1-3</t>
+        </is>
+      </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -1583,7 +1535,7 @@
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr">
         <is>
-          <t>水环境化学夏璐 (1-8周) 水文与水资源工程2020-1-2</t>
+          <t>结晶学与矿物学杜龙,毛光周 (1-2周) 资源勘查工程2021-1-2</t>
         </is>
       </c>
       <c r="X11" t="inlineStr"/>
@@ -1612,89 +1564,61 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>工程热力学与传热学赵文彬 (1-12周) 安全工程2020-3-4</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>突发事件案例分析孟祥豹 (1-5周) 安全工程（应急管理方向）2018</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>突发事件案例分析孟祥豹 (1-4周) 安全工程（应急管理方向）2019</t>
-        </is>
-      </c>
+          <t>固体废物处理工程薛彦辉 (1-9周) 环境工程（海洋环境方向）2019</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>有机化学（B）卢文欣 (1-8周) 环境工程2020-1-4</t>
-        </is>
-      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>防排烟工程聂文 (1-2周) 安全工程2019-3-4</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>工程流体力学雷舒蓉 (1-5周) 车辆工程2019-3</t>
-        </is>
-      </c>
+          <t>环境影响评价薛建良 (1-9周) 环境工程（海洋环境方向）2019</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>环境影响评价曹晓强 (1-6周) 环境工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>化工过程安全贺正龙 (1-9周) 安全工程2019-3-4</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>职业健康与安全张新燕 (1-8周) 安全工程2018-3-4</t>
+          <t>固体废物处理工程薛彦辉 (1-9周) 环境工程（海洋环境方向）2019</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>有机化学（B）卢文欣 (1-8周) 环境工程2020-1-4</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>工程热力学与传热学赵文彬 (1-12周) 安全工程2020-3-4</t>
-        </is>
-      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>重大危险源辨识与危害分析刘国明 (1-3周) 安全工程2019-3-4</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>工程流体力学雷舒蓉 (1-5周) 车辆工程2019-3</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>防排烟工程聂文 (1-2周) 安全工程2019-3-4</t>
-        </is>
-      </c>
+          <t>数字摄影测量原理与方法刘健辰 (1-12周) 遥感科学与技术2019-1</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>环境影响评价曹晓强 (1-6周) 环境工程2019-1-2</t>
+        </is>
+      </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr">
         <is>
-          <t>防排烟工程聂文 (1-2周) 安全工程2019-3-4</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>防排烟工程孟娜 (1-5周) 安全工程2019-1-2</t>
-        </is>
-      </c>
+          <t>化工过程安全贺正龙 (1-9周) 安全工程2019-3-4</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>压力容器安全孟祥喜 (1-8周) 安全工程2019-1-4</t>
-        </is>
-      </c>
+      <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
@@ -1715,31 +1639,27 @@
           <t>J14-205室</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>应用统计学(A)马媛 (1-8周) 工商管理2019-1-2</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>国际金融学聂国栋 (1-9周) 金融学2019-1-2</t>
+          <t>保险学*孙玉红 (1-9周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>创新管理郝婷 (1-9周) 工商管理2019-1-2</t>
+          <t>国际企业管理姜秀娟 (1-9周) 工商管理2019-1-2</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>证券投资学周衍平 (1-4,6-9周) 投资学2019-1-2</t>
+          <t>数字摄影测量原理与方法解斐斐 (1-12周) 遥感科学与技术2019-2-3</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>外贸单证与跟单*刘本玲 (1-6周) 国际经济与贸易2018-1-2</t>
+          <t>国际贸易实务马有才 (1-12周) 国际经济与贸易2020-1-2</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -1747,52 +1667,84 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>应用统计学(A)马媛 (1-8周) 工商管理2019-1-2</t>
+          <t>银行结算*邢苗 (1-9周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>服务营销高军红 (1-9周) 工商管理2019-1-2</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr"/>
+          <t>绿色物流杨珍花 (1-8周) 物流管理2020-1-2</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>创新管理王炳成 (1-8周) 物流管理2021-1-2</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>机械设计基础逯振国 (1-12周) 交通运输2020-1-2</t>
+        </is>
+      </c>
       <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>国际贸易实务马有才 (1-12周) 国际经济与贸易2020-1-2</t>
+        </is>
+      </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>创新管理郝婷 (1-9周) 工商管理2019-1-2</t>
+          <t>国际企业管理姜秀娟 (1-9周) 工商管理2019-1-2</t>
         </is>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr">
         <is>
-          <t>应用统计学(A)马媛 (1,3-8周) 工商管理2019-1-2</t>
+          <t>创新管理王炳成 (1-8周) 物流管理2021-1-2</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>服务营销高军红 (1-9周) 工商管理2019-1-2</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>运筹学（B）庄晓雯 (1周) 工商管理2019-2</t>
-        </is>
-      </c>
+          <t>科学研究方法汪锋 (1-4周) 采矿工程2020-5-6</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>国际结算焦习燕 (1-8周) 国际经济与贸易(辅修)2020</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>国际结算焦习燕 (1-8周) 国际经济与贸易(辅修)2020</t>
+        </is>
+      </c>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>运筹学庄晓雯 (1-12周) 工商管理辅修 2020版</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>运筹学庄晓雯 (1-12周) 工商管理辅修 2020版</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>宏观经济学（A）孟文强 (1-12周) 国际经济与贸易(辅修)2020</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>宏观经济学（A）孟文强 (1-12周) 国际经济与贸易(辅修)2020</t>
+        </is>
+      </c>
       <c r="AK13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -1805,48 +1757,112 @@
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-2)闫凤霞 (1-16周) 金融学2021-2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>普通化学（B）路广 (1-8周) 勘查技术与工程2020-2</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>机器人技术石侃,张海强 (1-8周) 临班234 机器人技术石侃,张海强 (1-8周) 临班236</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>中俄文化对比王淑杰 (1-8周) 临班59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>结晶学与矿物学李旭平 (1-8周) 资源勘查工程2021-3</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>高等数学（A）（2-2）李玉青 (1-14周) 机械设计制造及其自动化2021-1-4</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>思想政治理论课综合实践李之鹏 (1-2,15-16周) 采矿工程2020-4-6</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>GIS软件与应用刘洪强 (1-8周) 地理信息科学2020-3</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>高等数学（A）（2-2）李玉青 (1-14周) 机械设计制造及其自动化2021-1-4</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>大学物理（B）（2-1）王璟璟 (1-12周) 机械设计制造及其自动化2021-1-3</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>普通化学（B）路广 (1-8周) 勘查技术与工程2020-2</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>机器人技术石侃,张海强 (1-8周) 临班235 机器人技术石侃,张海强 (1-8周) 临班237</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
+          <t>中俄文化对比王淑杰 (1-8周) 临班60</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>中国传统文化十讲徐岩 (1-8周) 临班200</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>高等数学（A）（2-2）宋治涛 (1-14周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>高等数学（A）（2-2）宋治涛 (1-14周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+        </is>
+      </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>机器人技术石侃,张海强 (1-8周) 临班234 机器人技术石侃,张海强 (1-8周) 临班236</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
+          <t>奇妙的高分子世界王冬梅 (1-8周) 临班279 奇妙的高分子世界王冬梅 (1-8周) 临班280</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>GIS软件与应用刘洪强 (1-8周) 地理信息科学2020-3</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>高等数学（A）（2-2）李玉青 (1-14周) 机械设计制造及其自动化2021-1-4</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>大学物理（B）（2-1）王璟璟 (1-12周) 机械设计制造及其自动化2021-1-3</t>
+        </is>
+      </c>
       <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>机器人技术石侃,张海强 (1-8周) 临班235 机器人技术石侃,张海强 (1-8周) 临班237</t>
-        </is>
-      </c>
+      <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>数据库技术基础张永华 (1-8周) 临班187</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>数据库技术基础张永华 (1-8周) 临班187</t>
+        </is>
+      </c>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr"/>
@@ -1865,56 +1881,60 @@
           <t>J14-209室</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>精细化工工艺与设备张新堂 (1-6周) 化学工程与工艺2019-1-3</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>选矿厂设计崔广文 (1-5单周) 矿物加工工程2018-1-3</t>
+          <t>安全生产与环保高中政 (1-8周) 生物工程2020-1</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>胶体与界面化学滕弘霓 (1-8周) 应用化学2019-1-3</t>
-        </is>
-      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>细胞生物学吕英海 (1-8周) 生物工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>采矿科学与技术（双语）蒋力帅 (1-2,4-9周) 采矿工程2018-1-2</t>
+          <t>浮选李琳 (1-9周) 矿物加工工程2019-1-3</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>选矿厂设计崔广文 (1-5周) 矿物加工工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>应用电化学崔立强 (1-8周) 应用化学2019-1-3</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>矿石可选性研究王力 (1-5周) 矿物加工工程2018-1-2</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>工业催化张新堂 (1-8周) 化学工程与工艺2019-1-3</t>
-        </is>
-      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>矿山环境评价概论王俊祥 (1-7周) 矿物加工工程2019-1-3</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>化工原理李敏 (1-15,17-19周) 应用化学2019-1-2</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>胶体与界面化学滕弘霓 (1-8周) 应用化学2019-1-3</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>应用电化学崔立强 (1-8周) 应用化学2019-1-3</t>
+        </is>
+      </c>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
@@ -1938,65 +1958,57 @@
           <t>J14-211室</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-2)郭放 (1-16周) 工程力学2021-1</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>采矿学王玉和 (1-5周) 采矿工程2019-1-2</t>
+          <t>有限单元法杨坤 (1-8周) 工程力学2019-1-2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>单片机原理与接口技术张华宇 (1-8周) 机械电子工程2019-4-5</t>
-        </is>
-      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>有限元方法朱绪力 (1-3,8-16周) 机械电子工程(留学生)2018</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>电工电子技术(B)窦刚 (1-11周) 工业工程2019-1-2</t>
+          <t>聚合物流变学*赵丽芬 (1-8周) 高分子材料与工程2019-3-4</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>采矿学王玉和 (1-5周) 采矿工程2019-1-2</t>
+          <t>有限单元法杨坤 (1-8周) 工程力学2019-1-2</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>复杂煤层开采秦忠诚 (1-5周) 采矿工程2018-1-6</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>岩体力学谭云亮 (1-5周) 采矿工程2019-1</t>
-        </is>
-      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>科学研究方法郭忠平 (1-4周) 采矿工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>单片机原理与接口技术张华宇 (1-8周) 机械电子工程2019-4-5</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>机电传动控制谷明霞 (1-9周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>聚合物流变学*赵丽芬 (1-8周) 高分子材料与工程2019-3-4</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>科学研究方法郭忠平 (1-4周) 采矿工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
@@ -2022,12 +2034,16 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>电子技术常龙,王云霞 (1-6,9-18周) 机械电子工程(留学生)2020</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>构造地质学张丽萍 (1-5,7-8周) 勘查技术与工程2019-1-2</t>
+          <t>计算机数控系统武洪恩 (1-14周) 机械电子工程(留学生)2019</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -2036,31 +2052,27 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>MATLAB基础陈毕胜 (1-5周) 机械电子工程(留学生)2019</t>
+          <t>科学研究方法汪锋 (1-4周) 采矿工程2020-5-6</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>基础工业工程刘兆霞 (1-10周) 工业工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>有限元方法朱绪力 (1-3,8-16周) 机械电子工程(留学生)2018</t>
-        </is>
-      </c>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>计算机数控系统武洪恩 (1-13周) 机械电子工程(留学生)2019</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>电子技术常龙,王云霞 (1-6,9-18周) 机械电子工程(留学生)2020</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>MATLAB基础陈毕胜 (1-5周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
@@ -2085,44 +2097,32 @@
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>无损检测李桂杰 (1-6,8-9周) 金属材料工程（焊接技术方向）2018-1-2</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>移动GIS软件开发与应用刘冰 (1-10周) 地理信息科学2019-1-3</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>电路陈旭 (1-10周) 电气工程及其自动化2020-3-4</t>
-        </is>
-      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>地球化学陈桥 (1周) 地质工程2019-1-3</t>
-        </is>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>统计与数据分析孙友霞 (1-8周) 工业工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>移动GIS软件开发与应用刘冰 (1-10周) 地理信息科学2019-1-3</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>环境学薛建良 (1-7周) 环境工程2020-1-4</t>
-        </is>
-      </c>
+      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr">
         <is>
-          <t>热工测量及仪表郭兰兰 (1-9周) 能源与动力工程2019-1-3</t>
+          <t>工程测量学刘尚国 (1-12周) 测绘工程2019-3</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
@@ -2153,37 +2153,53 @@
           <t>J14-221室</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>近代测量平差概论刘国林 (1-9周) 测绘工程2019-1-3</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>海底地形测量阳凡林 (1-8周) 测绘工程(海洋测绘)2019-1-2</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>C#测绘应用程序设计李泽宇 (1-4周) 测绘工程2020-3-5</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>误差理论与测量平差基础陶秋香 (1-8周) 遥感科学与技术2020-1-2</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>数据结构与算法韩李涛 (1-10周) 地理信息科学2021-1-3</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>土地管理与信息系统李云岭 (1周) 地理信息科学2019-1-3</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>海底地形测量阳凡林 (1-8周) 测绘工程(海洋测绘)2019-1-2</t>
+          <t>土地管理与信息系统李云岭 (1-9周) 地理信息科学2019-1-3</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>数据结构与算法韩李涛 (1-10周) 地理信息科学2021-1-3</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Python 程序设计刘洪强 (1-9周) 地理信息科学2019-1-3</t>
+        </is>
+      </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>近代测量平差概论刘国林 (1-9周) 测绘工程2019-1-3</t>
+          <t>误差理论与测量平差基础刘国林 (1-8周) 遥感科学与技术2020-3</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
@@ -2191,10 +2207,14 @@
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr">
         <is>
-          <t>海底地形测量阳凡林 (1-8周) 测绘工程(海洋测绘)2019-1-2</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr"/>
+          <t>数字图像处理刘健辰 (1-8周) 遥感科学与技术2020-1-3</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>土地管理与信息系统李云岭 (1-9周) 地理信息科学2019-1-3</t>
+        </is>
+      </c>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
@@ -2223,33 +2243,25 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>土质学与土力学刘强 (1-12周) 地质工程2019-1-3</t>
-        </is>
-      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>水力学张升堂 (1-10周) 水文与水资源工程2020-1-2</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>土质学与土力学刘强 (1-12周) 地质工程2019-1-3</t>
-        </is>
-      </c>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>地质素描杜龙 (1-4周) 资源勘查工程2021-1-3</t>
+        </is>
+      </c>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
@@ -2278,16 +2290,20 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>线性代数李红玉 (1-11周) 地质工程2020-1-3</t>
+          <t>弹性力学基础徐东晶 (1-8周) 地质工程2020-1-2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>材料力学（B）赵增辉 (1-11周) 采矿工程2020-1-2</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>概率论与数理统计黄珍 (1-3,5-12周) 测绘工程2020-4-5</t>
+          <t>工程概论孙凌志 (1-6,10-11周) 机械电子工程2020-1-3</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -2296,46 +2312,42 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>线性代数李红玉 (1-11周) 地质工程2020-1-3</t>
+          <t>工程概论孙凌志 (1-6,10-11周) 机械电子工程2020-4-6</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>岩石学杜龙 (1-6周) 水文与水资源工程2020-1</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr"/>
+          <t>弹性力学基础徐东晶 (1-8周) 地质工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>材料力学（B）赵增辉 (1-11周) 采矿工程2020-1-2</t>
+        </is>
+      </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>概率论与数理统计黄珍 (1-12周) 测绘工程2020-4-5</t>
+          <t>思想政治理论课综合实践常春,毛雪婷,史璇,叶小青,周月 (1-2,15-16周) 采矿工程2020-1-3</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>管理会计刘立华 (1-12周) 会计学2019-1-2</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>岩石学吴靖,杨仁超 (1-8周) 地质工程2020-3</t>
-        </is>
-      </c>
+      <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>摄录像技术宋正国 (1-8周) 临班74</t>
+          <t>技术经济牛海丽 (1-8周) 临班24</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>摄录像技术宋正国 (1-8周) 临班74</t>
+          <t>技术经济牛海丽 (1-8周) 临班24</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr"/>
@@ -2358,12 +2370,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>物理化学（A）孙海清 (1-4,6-12周) 新能源材料与器件2020-2</t>
+          <t>大气污染控制工程赵艳云 (1-9周) 环境工程2019-3</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>职业健康与安全孙路路 (1-8周) 安全工程2018-1-2</t>
+          <t>水污染控制工程高宇 (1-13周) 环境工程（海洋环境方向）2019</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -2371,74 +2383,54 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>建筑安全苗德俊 (1-8周) 安全工程2018-1-2</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>先进材料焊接技术张春芝 (1-8周) 金属材料工程2018-1-3班,金属材料工程（焊接技术方向）2018-1-2</t>
-        </is>
-      </c>
+          <t>仪器分析肖新峰 (1-4周) 环境工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>物理化学（A）孙海清 (1-4,6-12周) 新能源材料与器件2020-2</t>
+          <t>大气污染控制工程李娜 (1-9周) 环境工程（海洋环境方向）2019</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>职业健康与安全孙路路 (1-8周) 安全工程2018-1-2</t>
+          <t>大气污染控制工程赵艳云 (1-9周) 环境工程2019-3</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>防火与防爆技术刘国明 (1-4周) 安全工程（应急管理方向）2019</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>压力容器安全孟祥喜 (1-8周) 安全工程2019-1-4</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>工程热力学与传热学李崇山 (1-12周) 安全工程2020-1-2</t>
-        </is>
-      </c>
+          <t>水污染控制工程高宇 (1-13周) 环境工程（海洋环境方向）2019</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
-          <t>建筑安全苗德俊 (1-8周) 安全工程2018-1-2</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>物理化学（A）孙海清 (1-4,6-12周) 新能源材料与器件2020-2</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>先进材料焊接技术张春芝 (1-8周) 金属材料工程2018-1-3班,金属材料工程（焊接技术方向）2018-1-2</t>
-        </is>
-      </c>
+          <t>仪器分析肖新峰 (1-4周) 环境工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>环境影响评价薛建良 (1-9周) 环境工程（海洋环境方向）2019</t>
+        </is>
+      </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>通风安全学程卫民 (1-5单周) 安全工程2019-1</t>
+          <t>大气污染控制工程李娜 (1-9周) 环境工程（海洋环境方向）2019</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>职业健康与安全张新燕 (1-8周) 安全工程2018-3-4</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>环境毒理学张林林 (1-9周) 环境工程（海洋环境方向）2019</t>
-        </is>
-      </c>
+          <t>水污染控制工程高宇 (1-11单周) 环境工程（海洋环境方向）2019</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr"/>
@@ -2461,19 +2453,31 @@
           <t>J14-304室</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>液压传动与控制张鑫 (1-9周) 机械电子工程2019-1-2</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>矿山机械包继华,曹连民,张永超 (1-3,7-12周) 机械电子工程2018-4</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>机电一体化系统设计石浩 (1-9周) 机械电子工程2019-3-5</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>可编程控制器姜雪,王德堂 (1-8周) 机械电子工程2019-4-5</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>采煤工艺学栾恒杰 (1-4周) 采矿工程2019-3-4</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>矿山机械包继华,曹连民,张永超 (1-3,7-12周) 机械电子工程2018-4</t>
+          <t>液压传动与控制曹连民 (1-9周) 机械电子工程2019-3-4</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -2481,38 +2485,38 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>通风安全学程卫民 (1-5周) 安全工程2019-1</t>
+          <t>液压传动与控制张鑫 (1-9周) 机械电子工程2019-1-2</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>管理学（B） 田莹 (1-3,8-12周) 机械电子工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>管理学（B） 田莹 (1-3,8-12周) 机械电子工程2018-4-5</t>
-        </is>
-      </c>
+          <t>机电一体化系统设计石浩 (1-9周) 机械电子工程2019-3-5</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>分子生物学高中政 (1-7,10-11周) 生物工程2019-2</t>
-        </is>
-      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>可编程控制器姜雪,王德堂 (1-8周) 机械电子工程2019-1-3</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr">
         <is>
-          <t>管理学（B） 田莹 (1-3,8-12周) 机械电子工程2018-4-5</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr"/>
+          <t>液压传动与控制曹连民 (1-9周) 机械电子工程2019-3-4</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>可编程控制器姜雪,王德堂 (1-8周) 机械电子工程2019-4-5</t>
+        </is>
+      </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr">
         <is>
-          <t>管理学（B） 田莹 (1-3,8-12周) 机械电子工程2018-1-3</t>
+          <t>可编程控制器姜雪,王德堂 (1-8周) 机械电子工程2019-1-3</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr"/>
@@ -2540,12 +2544,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>固定收益证券孟科学 (1-9周) 金融学2019-1-2</t>
+          <t>组织行为学(A)张学睦 (1-9周) 工商管理2019-1-2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>管理信息系统（A）周长红 (1-9周) 电子商务2019-1-2</t>
+          <t>物流管理信息系统曾丽君 (1-7周) 物流管理2020-1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -2554,47 +2558,63 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>计量经济学（A）张建刚 (1-11周) 金融学2019-1-2</t>
+          <t>经济学研究方法*赵金凯 (1-9周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>组织行为学(A)张学睦 (1-9周) 工商管理2019-1-2</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>管理信息系统（A）周长红 (1-9周) 电子商务2019-1-2</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr"/>
+          <t>应用统计学（C）张杰 (1-8周) 物流管理2019-1-2</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>金融工程学张建刚 (1-9周) 金融学2019-1-2</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr">
         <is>
-          <t>固定收益证券孟科学 (1-9周) 金融学2019-1-2</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>计量经济学（A）张建刚 (1-11周) 金融学2019-1-2</t>
-        </is>
-      </c>
+          <t>保险学*孙玉红 (1-9周) 投资学2019-1-2</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr">
         <is>
-          <t>博弈论导论曲优 (1-9周) 0822000902002</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr"/>
+          <t>应用统计学（C）张杰 (1-7周) 物流管理2019-1-2</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>金融工程学张建刚 (1-9周) 金融学2019-1-2</t>
+        </is>
+      </c>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>组织行为学（A）曲优 (1-8周) 工商管理(辅修)2020</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>组织行为学（A）曲优 (1-8周) 工商管理(辅修)2020</t>
+        </is>
+      </c>
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr"/>
@@ -2611,27 +2631,19 @@
           <t>J14-306室</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>线性代数付余 (1-11周) 遥感科学与技术2020-1-3</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>线性代数李刚 (1-11周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>土力学杨坤 (1-11周) 工程力学2019-1-2</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>工程地质专业英语张鹏飞 (1-8周) 地质工程2019-1</t>
-        </is>
-      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>马克思主义基本原理冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
+          <t>土木工程概论苗佳丽 (1-8周) 地质工程2020-1-3</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -2639,45 +2651,49 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>线性代数付余 (1-11周) 遥感科学与技术2020-1-3</t>
+          <t>安全管理学刘音 (1-3周) 安全工程2020-1-2</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>线性代数李刚 (1-11周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
+          <t>金属材料工程专业英语朱慧灵 (1-8周) 金属材料工程2019-4-5</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>工程地质专业英语张鹏飞 (1-8周) 地质工程2019-1</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr"/>
+          <t>土力学杨坤 (1-11周) 工程力学2019-1-2</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>军事理论赵辉,闫华晓 (1-16周) 矿物加工工程2021-1班,化学工程与工艺2021-3</t>
+        </is>
+      </c>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>土木工程概论苗佳丽 (1-8周) 地质工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-2)谭剑鸣 (1-16周) 机械电子工程2021-6</t>
+        </is>
+      </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>工程地质专业英语张鹏飞 (1-4周) 地质工程2019-1</t>
-        </is>
-      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>金属材料工程专业英语朱慧灵 (1-8周) 金属材料工程2019-4-5</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>数据库技术基础张永华 (1-2,4-5,7-8周) 临班77</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>数据库技术基础张永华 (1-2,4-5,7-8周) 临班77</t>
-        </is>
-      </c>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>
@@ -2698,67 +2714,55 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>金属成型原理与工艺张春芝 (1-4周) 金属材料工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>金属成型原理与工艺张春芝 (1-4周) 金属材料工程2019-3</t>
-        </is>
-      </c>
+          <t>聚合物加工原理与成型工艺董琪 (1-2周) 材料化学2019-1-2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>金属成型原理与工艺张春芝 (1-4周) 金属材料工程2019-3</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>机械设计基础（A）张悦刊 (1-3周) 金属材料工程2020-1-2</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>结构化学孙海清 (1-9周) 材料化学2019-1-2</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>金属固态相变原理宋强 (1-6,8-9周) 金属材料工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>金属成型原理与工艺张春芝 (1-4周) 金属材料工程2019-1-2</t>
-        </is>
-      </c>
+          <t>材料科学基础（B）丁建旭 (1-8周) 新能源材料与器件2020-1</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>数据库技术及物流软件开发刘志海 (1-8,10周) 物流工程2019-1-2</t>
+          <t>材料科学基础（B）丁建旭 (1-8周) 新能源材料与器件2020-2</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>金属成型原理与工艺张春芝 (1-4周) 金属材料工程2019-3</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>机械设计基础（A）张悦刊 (1-3周) 金属材料工程2020-1-2</t>
+        </is>
+      </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>金属成型原理与工艺张春芝 (1-4周) 金属材料工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr">
         <is>
-          <t>金属固态相变原理宋强 (1-6,8-9周) 金属材料工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr"/>
+          <t>机械设计基础（A）张悦刊 (1-3周) 金属材料工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>材料科学基础（B）丁建旭 (1-8周) 新能源材料与器件2020-2</t>
+        </is>
+      </c>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr"/>
@@ -2783,71 +2787,79 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>矿山机械陈庆光,万丽荣,张媛,周满山 (1-3,7-12周) 机械电子工程2018-1</t>
+          <t>有限元分析及应用聂志峰 (1-9周) 过程装备与控制工程2019-1-2</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>弹性力学马志涛 (1-12周) 工程力学2019-1-2</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>热工基础王默晗,衣秋杰 (1-9周) 过程装备与控制工程2019-1-2</t>
-        </is>
-      </c>
+          <t>电子技术仉毅 (1-6,10-14周) 机械电子工程2020-5-6</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>矿山机械陈庆光,杨扬,张媛,周满山 (1-3,7-12周) 机械电子工程2018-2</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>矿山机械陈庆光,万丽荣,张媛,周满山 (1-3,7-12周) 机械电子工程2018-1</t>
-        </is>
-      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>矿山机械陈庆光,杨扬,张媛,周满山 (1-3,7-12周) 机械电子工程2018-2</t>
+          <t>液压传动与控制杨扬 (1-9周) 机械电子工程2019-5</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>燃烧学周振峰 (1-8周) 能源与动力工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>电子技术仉毅 (1-6,10-14周) 机械电子工程2020-5-6</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>管理会计刘立华 (1-12周) 会计学2019-1-2</t>
+          <t>金融专业英语闻德美 (1-9周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>矿山机械陈庆光,万丽荣,张媛,周满山 (1-3,7-12周) 机械电子工程2018-1</t>
-        </is>
-      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>计算方法江守波 (1-6周) 机械电子工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr">
         <is>
-          <t>矿山机械陈庆光,杨扬,张媛,周满山 (1-3,7-12周) 机械电子工程2018-2</t>
+          <t>液压传动与控制杨扬 (1-9周) 机械电子工程2019-5</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>热工基础王默晗,衣秋杰 (1-9周) 过程装备与控制工程2019-1-2</t>
+          <t>有限元分析及应用聂志峰 (1-9周) 过程装备与控制工程2019-1-2</t>
         </is>
       </c>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>燃烧学周振峰 (1-8周) 能源与动力工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>电子技术仉毅 (1-6,10-13周) 机械电子工程2020-5-6</t>
+        </is>
+      </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>矿山机械包继华,曹连民,张永超 (1-3,7-12周) 机械电子工程2018-4</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr"/>
+          <t>计算方法江守波 (1-6周) 机械电子工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>化工原理（C）牛海丽 (1-9周) 过程装备与控制工程2019-1-2</t>
+        </is>
+      </c>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr"/>
@@ -2870,52 +2882,76 @@
           <t>J14-309室</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>无机与分析化学（2-2）朱林晖 (1-8周) 化学工程与工艺2021-1-3</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>计算机绘图王智伟 (1-8周) 矿物加工工程2019-1-3</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>化工过程模拟与优化张治山 (1-8周) 化学工程与工艺2019-1-3</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>化工分离工程高军 (1-9周) 化学工程与工艺2019-1-3</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>采矿科学与技术（双语）张学朋 (1-9周) 采矿工程2018-3-4</t>
+          <t>分析化学王冬梅 (1-8周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>有机合成设计王鹏 (1-9周) 应用化学2019-1-3</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>无机与分析化学（2-2）朱林晖 (1-8周) 化学工程与工艺2021-1-3</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>应急与危机心理干预于海明 (1-8周) 安全工程（应急管理方向）2019</t>
+        </is>
+      </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>化工设备基础焦甜甜 (1-9周) 化学工程与工艺2019-3</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>化工过程模拟与优化张治山 (1-8周) 化学工程与工艺2019-1-3</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>有机合成设计王鹏 (1-9周) 应用化学2019-1-3</t>
-        </is>
-      </c>
+          <t>洁净煤技术王力 (1-7周) 矿物加工工程2019-1-3</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>汉语（4-2）丁丽 (1-12周) 通信工程(留学生)2021班,机械电子工程(留学生)2021班,化学工程与工艺(留学生)2021</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>化工分离工程高军 (1-9周) 化学工程与工艺2019-1-3</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>分析化学王冬梅 (1-8周) 应用化学2021-1</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>分析化学陈伟 (1-8周) 应用化学2021-2</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>洁净煤技术王力 (1-7周) 矿物加工工程2019-1-3</t>
+        </is>
+      </c>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
@@ -2939,52 +2975,72 @@
           <t>J14-310室</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>线性代数李刚 (1-11周) 资源勘查工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>国际结算*焦习燕 (1-6周) 国际经济与贸易2019-1-2</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>计算机程序设计(VF)康宏 (1-6周) 工商管理2020-1-2</t>
+          <t>普通化学（B）孔霞 (1-8周) 勘查技术与工程2020-1</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>工程地质专业英语程燕君,张军建 (1-4周) 地质工程2019-2</t>
-        </is>
-      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>GIS原理及应用谢道雷 (1-8周) 地质工程2020-1-3</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>岩石学吴靖,杨仁超 (1-8周) 地质工程2020-3</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>线性代数李刚 (1-11周) 资源勘查工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
+          <t>弹性力学基础吕显州 (1-8周) 地质工程2020-3</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>国际结算*焦习燕 (1-6周) 国际经济与贸易2019-1-2</t>
+        </is>
+      </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>计算机程序设计(VF)康宏 (1-6周) 工商管理2020-1-2</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr"/>
+          <t>普通化学（B）孔霞 (1-8周) 勘查技术与工程2020-1</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>国际物流王滋承 (1-8周) 临班170</t>
+        </is>
+      </c>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>GIS原理及应用谢道雷 (1-8周) 地质工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-2)刘智慧 (1-16周) 机械电子工程2021-5</t>
+        </is>
+      </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>应急与危机心理干预于海明 (1-8周) 安全工程（应急管理方向）2019</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>矿井设计李青海 (1-9周) 采矿工程（智能开采方向）2019-1</t>
+        </is>
+      </c>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
@@ -3008,51 +3064,67 @@
           <t>J14-311室</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>机电传动控制谷明霞 (1-9周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>矿山压力与岩层控制谭云亮 (1-5周) 采矿工程2019-1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>电子技术高丽丽 (1-6,10-14周) 机械电子工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>热工基础倪鹏 (1-8周) 机械电子工程2019-4-5</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>矿山压力与岩层控制谭云亮 (1-5周) 采矿工程2019-1</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>电子技术高丽丽 (1-6,10-14周) 机械电子工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>数字摄影测量原理与方法解斐斐 (1-12周) 遥感科学与技术2019-2-3</t>
+        </is>
+      </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr">
         <is>
-          <t>工程测量景冬 (1-7,9周) 采矿工程（智能开采方向）2019-2</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>采矿学黄万朋 (1-8周) 采矿工程（智能开采方向）2019-2</t>
-        </is>
-      </c>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>热工基础倪鹏 (1-8周) 机械电子工程2019-4-5</t>
-        </is>
-      </c>
+          <t>电子技术高丽丽 (1-6,10-13周) 机械电子工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
+        </is>
+      </c>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
@@ -3075,83 +3147,55 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>国际商法（A）刘本玲 (1-9周) 国际经济与贸易2019-1-2</t>
+          <t>中级财务会计（II）吴文文 (1-12周) 会计学2020-1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>外贸英文函电于晓燕 (1-5,7-9周) 国际经济与贸易2019-1-2</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>商务英语口语于晓燕 (1-5,7-9周) 国际经济与贸易2019-1-2</t>
-        </is>
-      </c>
+          <t>电子商务专业英语文献阅读孙丽华 (1-9周) 电子商务2019-1</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>国际金融孙江永 (1-9周) 国际经济与贸易2019-1-2</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>国际商务谈判马恒平 (1-9周) 国际经济与贸易2019-1-2</t>
-        </is>
-      </c>
+          <t>计量经济学（A）陶敏 (1-11周) 国际经济与贸易2019-1-2</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>国际商法（A）刘本玲 (1-9周) 国际经济与贸易2019-1-2</t>
+          <t>电子商务专业英语文献阅读孙丽华 (1-9周) 电子商务2019-1</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>博弈论导论曲优 (1-9周) 0822000902002</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>国际服务贸易李丽丽 (1-9周) 国际经济与贸易2019-1-2</t>
-        </is>
-      </c>
+          <t>中级财务会计（II）吴文文 (1-9周) 会计学2020-1</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>国际金融孙江永 (1-4周) 国际经济与贸易2019-1-2</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>外贸英文函电于晓燕 (1-9周) 国际经济与贸易2019-1-2</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>商务英语口语于晓燕 (1-9周) 国际经济与贸易2019-1-2</t>
-        </is>
-      </c>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr">
         <is>
-          <t>国际商法（A）刘本玲 (1-9周) 国际经济与贸易2019-1-2</t>
+          <t>银行结算*邢苗 (1-9周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>国际商务谈判马恒平 (1-9周) 国际经济与贸易2019-1-2</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>国际服务贸易李丽丽 (1-4周) 国际经济与贸易2019-1-2</t>
-        </is>
-      </c>
+          <t>绿色物流杨珍花 (1-8周) 物流管理2020-1-2</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
@@ -3177,62 +3221,74 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>热力发电厂李龙之 (1-3,7-12周) 能源与动力工程2018-1-3</t>
+          <t>电子技术吴清收 (1-6,10-14周) 机械电子工程2020-3-4</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>机械原理魏军英 (1,3,5,9,11,13,15单周) 机械电子工程(留学生)2020</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>工程流体力学韩宝坤 (1-7周) 机械电子工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>矿井通风与安全鹿广利 (1-7,9-10周) 采矿工程（智能开采方向）2019-1-2</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>矿井设计李青海 (1-9周) 采矿工程（智能开采方向）2019-1</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>供热工程李瑛 (1-3,7-12周) 能源与动力工程2018-1-3</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>先进热泵技术孔祥强 (1-3,7-12周) 能源与动力工程2018-1-3</t>
+          <t>电子技术吴清收 (1-6,10-14周) 机械电子工程2020-3-4</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>热力发电厂李龙之 (1-3,7-12周) 能源与动力工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr"/>
+          <t>材料分析测试技术汪静 (1-12周) 材料化学2019-1</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>机械CAD丁淑辉 (1-12周) 机械电子工程(留学生)2019</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>工程流体力学韩宝坤 (1-7周) 机械电子工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>机械原理魏军英 (1,3,5,9,11,13,15单周) 机械电子工程(留学生)2020</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr">
         <is>
-          <t>市场营销学(D)高军红 (1-9周) 物流管理2018-1-2</t>
+          <t>矿井通风与安全鹿广利 (1-7,9-10周) 采矿工程（智能开采方向）2019-1-2</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>供热工程李瑛 (1-3,7-12周) 能源与动力工程2018-1-3</t>
-        </is>
-      </c>
+      <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr">
         <is>
-          <t>先进热泵技术孔祥强 (1-3,7-12周) 能源与动力工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
+          <t>电子技术吴清收 (1-6,10-13周) 机械电子工程2020-3-4</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>材料分析测试技术汪静 (1-12周) 材料化学2019-1</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>机械CAD丁淑辉 (1-12周) 机械电子工程(留学生)2019</t>
+        </is>
+      </c>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
@@ -3255,65 +3311,33 @@
           <t>J14-314室</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>理论力学（B）冯元慧 (1-12周) 机械电子工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>线性代数黄珍 (1-11周) 机械电子工程2020-1-3</t>
-        </is>
-      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>工程地质专业英语贾海波 (1-8周) 地质工程2019-3</t>
-        </is>
-      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>线性代数黄珍 (1-11周) 机械电子工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>理论力学（B）冯元慧 (1-12周) 机械电子工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>工程地质专业英语贾海波 (1-8周) 地质工程2019-3</t>
-        </is>
-      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr">
         <is>
-          <t>马克思主义基本原理冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
+          <t>大学英语（A)(2-2)王文 (1-16周) 测绘工程2021-1</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>岩土钻掘工程学冯建国 (1-4周) 地质工程2019-2</t>
-        </is>
-      </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>工程地质专业英语贾海波 (1-4周) 地质工程2019-3</t>
-        </is>
-      </c>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
@@ -3336,31 +3360,19 @@
           <t>J14-316室</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>宏观经济学(A)孟文强 (1-7周) 金融学2020-1-2</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>计算机程序设计(VF)康宏 (1-6周) 金融学2020-1-2</t>
-        </is>
-      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>行为金融学孟科学 (1-9周) 金融学2018-1-2</t>
+          <t>财务管理(A)刘超 (1-12周) 会计学2020-1-2</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>薪酬与绩效管理周志刚 (1-9周) 工商管理2019-1-2</t>
-        </is>
-      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>经济法（B）王彩霞 (1-9周) 会计学2018-1-2</t>
+          <t>风险管理尘娜 (1-9周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -3368,40 +3380,28 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>宏观经济学(A)孟文强 (1-7周) 金融学2020-1-2</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>计算机程序设计(VF)康宏 (1-6周) 金融学2020-1-2</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>行为金融学孟科学 (1-9周) 金融学2018-1-2</t>
-        </is>
-      </c>
+          <t>财务管理(A)刘超 (1-12周) 会计学2020-1-2</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>薪酬与绩效管理周志刚 (1-9周) 工商管理2019-1-2</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>风险管理尘娜 (1-9周) 金融学2019-1-2</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>经济学研究方法*刘鹏 (1-9周) 投资学2019-1-2</t>
+        </is>
+      </c>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>设施布置及物流系统规划崔雪莲 (1-12周) 物流管理2018-1-2</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>经济法（B）王彩霞 (1-9周) 会计学2018-1-2</t>
-        </is>
-      </c>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
@@ -3427,59 +3427,51 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）刘静 (1-14周) 地理信息科学2019-1-3</t>
+          <t>矿产资源研究进展王泽利 (1-8周) 资源勘查工程2020-1-3</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）张进娟 (1-12周) 资源勘查工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
+          <t>运营管理(A)庄晓雯 (1-14周) 工商管理2019-2</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>矿井设计常西坤 (1-5周) 采矿工程2019-1-2</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>选矿厂设计崔广文 (1-5周) 矿物加工工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>马克思主义基本原理贾强,张蕾 (1-12周) 机械设计制造及其自动化2020-1-4</t>
-        </is>
-      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）刘静 (1-14周) 地理信息科学2019-1-3</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>大学物理（B）（2-2）张进娟 (1-12周) 资源勘查工程2020-1-3</t>
-        </is>
-      </c>
+          <t>古生物学李守军 (1-8周) 资源勘查工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>构造地质学金爱文 (1-8,10周) 资源勘查工程（海洋矿产资源方向）2019</t>
+          <t>运营管理(A)庄晓雯 (1-13周) 工商管理2019-2</t>
         </is>
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>岩石学樊爱萍,杨仁超 (1-4,6-7周) 地质工程2020-2</t>
+          <t>矿产资源研究进展王泽利 (1-8周) 资源勘查工程2020-1-3</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）穆雪梅 (1-6,9-14周) 采矿工程2020-4-6</t>
+          <t>矿井设计常西坤 (1-5周) 采矿工程2019-1-2</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>外贸单证与跟单*刘本玲 (1-6周) 国际经济与贸易2018-1-2</t>
+          <t>工程概论孙凌志 (1-6,10-11周) 机械电子工程2020-1-3</t>
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
@@ -3487,14 +3479,10 @@
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr">
         <is>
-          <t>工程测量姜岩 (1-9周) 采矿工程2019-1</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>岩石学樊爱萍,杨仁超 (1-8周) 地质工程2020-2</t>
-        </is>
-      </c>
+          <t>古生物学李守军 (1-8周) 资源勘查工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
@@ -3518,48 +3506,84 @@
           <t>J14-319室</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>高等数学（C）（2-2）赵文才 (1-16周) 金融学2021-1-2班,会计学2021-1-2</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>工程概论张传明 (1-8周) 水文与水资源工程2020-1-2</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要姜瑞学 (1-12周) 水文与水资源工程2021-1-2班,水文与水资源工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>社会主义发展史孙冬青 (1-8周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>线性代数张伟伟 (1-11周) 金融学2020-1-2班,会计学2020-1-2</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t>概率论与数理统计梁霄 (1-13周) 会计学2020-1-2班,国际经济与贸易2020-1-2</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>毛泽东思想和中国特色社会主义理论体系概论张建飞 (1-12周) 测绘工程2020-5班,遥感科学与技术2020-1-3</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要姜瑞学 (1-12周) 水文与水资源工程2021-1-2班,水文与水资源工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>思想政治理论课综合实践高明 (1-2,14-15周) 测绘工程2020-1-4</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>社会主义发展史孙冬青 (1-8周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+        </is>
+      </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>线性代数张伟伟 (1-11周) 金融学2020-1-2班,会计学2020-1-2</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr"/>
+          <t>概率论与数理统计梁霄 (1-13周) 会计学2020-1-2班,国际经济与贸易2020-1-2</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>社会主义发展史王若菡 (1-8周) 工商管理(体育)2021班,金融学2021-1-2班,工商管理2021-1-2</t>
+        </is>
+      </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>马克思主义基本原理尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>工程概论张传明 (1-8周) 水文与水资源工程2020-1-2</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
+          <t>毛泽东思想和中国特色社会主义理论体系概论张建飞 (1-12周) 测绘工程2020-5班,遥感科学与技术2020-1-3</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>思想政治理论课综合实践杨立蛟 (1-2,15-16周) 金属材料工程2020-1-4</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>高等数学（A）（2-2）宋治涛 (1-14周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要孙冬青 (1-12周) 工商管理(体育)2021班,金融学2021-1-2班,工商管理2021-1-2</t>
+        </is>
+      </c>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
@@ -3584,42 +3608,62 @@
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>矿山压力与岩层控制张培森 (1-10周) 采矿工程（智能开采方向）2019-2</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>误差理论与测量平差基础刘国林 (1-8周) 遥感科学与技术2020-3</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>工程概论张传明 (1-8周) 勘查技术与工程2020-1-2</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>积分变换洪永发 (1-5周) 能源与动力工程2020-1-3</t>
-        </is>
-      </c>
+          <t>职业健康孙路路 (1-9周) 安全工程（应急管理方向）2019</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>古生物学王平丽 (1-8周) 资源勘查工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>运营管理(A)庄晓雯 (1-14周) 工商管理2019-1</t>
+        </is>
+      </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）张志明 (1-12周) 工业工程2020-1-2</t>
+          <t>职业健康孙路路 (1-9周) 安全工程（应急管理方向）2019</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>古生物学王平丽 (1-8周) 资源勘查工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>矿井设计张新国 (1-9周) 采矿工程（智能开采方向）2019-2</t>
+        </is>
+      </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>遥感原理与应用肖兴媛 (1-12周) 测绘工程2019-1-3</t>
+          <t>运营管理(A)庄晓雯 (1-13周) 工商管理2019-1</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr"/>
@@ -3644,37 +3688,85 @@
           <t>J14-321室</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>数字图像处理刘健辰 (1-8周) 遥感科学与技术2020-1-3</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>马克思主义基本原理吴华眉 (1-12周) 测绘工程2020-5班,遥感科学与技术2020-1-3</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
+          <t>中国近现代史纲要孙冬青 (1-12周) 国际经济与贸易2021-1-2班,物流管理2021-1-2</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>社会主义发展史司会敏 (1-8周) 测绘工程2021-1-4</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>概率论与数理统计聂世谦 (1-13周) 金融学2020-1-2班,物流管理2020-1-2</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>毛泽东思想和中国特色社会主义理论体系概论张国庆 (1-12周) 金融学2020-1-2班,会计学2020-1-2</t>
+        </is>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>高等数学（C）（2-2）赵文才 (1-16周) 金融学2021-1-2班,会计学2021-1-2</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>社会主义发展史冯秀芹 (1-8周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>马克思主义基本原理刘丽威 (1-4,6-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr"/>
+          <t>马克思主义基本原理尤绪超 (1-3,7-15周) 金属材料工程2020-1-4</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>社会主义发展史司会敏 (1-8周) 测绘工程2021-1-4</t>
+        </is>
+      </c>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>概率论与数理统计聂世谦 (1-13周) 金融学2020-1-2班,物流管理2020-1-2</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>毛泽东思想和中国特色社会主义理论体系概论王忠春 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>毛泽东思想和中国特色社会主义理论体系概论张国庆 (1-12周) 金融学2020-1-2班,会计学2020-1-2</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>社会主义发展史孙绪民 (1-8周) 机械电子工程2021-5-6班,机械设计制造及其自动化2021-5-6</t>
+        </is>
+      </c>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>马克思主义基本原理尤绪超 (1-3,7-15周) 金属材料工程2020-1-4</t>
+        </is>
+      </c>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr"/>
@@ -3694,55 +3786,55 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>J14-323室</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>岩土钻掘工程学任加国,孙涛 (1-8周) 地质工程2019-1班,地质工程2019-3</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>J14-324室</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>机械设计(A)李桂莉 (1-9,14-15周) 材料成型及控制工程2019-2</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>计算方法宗成国 (1-6周) 机械电子工程2020-5-6</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>机械设计(A)李桂莉 (1-9,14-15周) 材料成型及控制工程2019-2</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
-          <t>重磁勘探李建平 (1-11周) 勘查技术与工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>岩土钻掘工程学任加国,孙涛 (1-8周) 地质工程2019-1班,地质工程2019-3</t>
-        </is>
-      </c>
+          <t>化工原理（C）牛海丽 (1-9周) 过程装备与控制工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>计算方法宗成国 (1-6周) 机械电子工程2020-5-6</t>
+        </is>
+      </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>重磁勘探李建平 (1-11周) 勘查技术与工程2019-1-2</t>
+          <t>机械设计(A)李桂莉 (1-9,14周) 材料成型及控制工程2019-2</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>岩土钻掘工程学任加国,孙涛 (1-4周) 地质工程2019-1班,地质工程2019-3</t>
-        </is>
-      </c>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>工程概论张传明 (1-8周) 勘查技术与工程2020-1-2</t>
-        </is>
-      </c>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
@@ -3763,16 +3855,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>J14-324室</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>机械制造基础许丹 (1-7周) 过程装备与控制工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+          <t>J14-326室</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>机械制造技术基础(B)黄为民 (1-9,14-15单周) 材料成型及控制工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>数控技术张国松 (1-9周) 材料成型及控制工程2019-1-2</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
@@ -3780,31 +3876,35 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>机械制造基础许丹 (1-7周) 过程装备与控制工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>机械制造技术基础(B)黄为民 (1-9,14-15单周) 材料成型及控制工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>计算方法李贺 (1-6周) 机械电子工程2020-3-4</t>
+        </is>
+      </c>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr">
         <is>
-          <t>节能原理与技术周振峰 (1-9周) 能源与动力工程2019-1-3</t>
+          <t>数控技术张国松 (1-9周) 材料成型及控制工程2019-1-2</t>
         </is>
       </c>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>机械制造基础许丹 (1-7周) 过程装备与控制工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>计算方法李贺 (1-6周) 机械电子工程2020-3-4</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
@@ -3824,49 +3924,57 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>J14-326室</t>
+          <t>J14-330室</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>热工基础郭兰兰 (1-8周) 机械电子工程2019-1-3</t>
+          <t>计量经济学(B)姜涛 (1周) 会计学2019-1-2</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>单片机原理与接口技术孙爱芹 (1-6周) 过程装备与控制工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>管理学(A)姜秀娟 (1-12周) 大数据管理与应用2021-1-2</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>数据挖掘张福平 (1-9周) 电子商务2019-2</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>热工基础郭兰兰 (1-8周) 机械电子工程2019-1-3</t>
+          <t>计量经济学(B)姜涛 (1-7周) 会计学2019-1-2</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>单片机原理与接口技术孙爱芹 (1-6周) 过程装备与控制工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>管理学(A)姜秀娟 (1-12周) 大数据管理与应用2021-1-2</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>计量经济学（A）陶敏 (1-11周) 国际经济与贸易2019-1-2</t>
+        </is>
+      </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>单片机原理与接口技术孙爱芹 (1-6周) 过程装备与控制工程2019-1-2</t>
+          <t>计量经济学(B)姜涛 (1-7周) 会计学2019-1-2</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr"/>
@@ -3889,80 +3997,72 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>J14-330室</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
+          <t>J14-334室</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>GNSS测量与数据处理苏醒 (1-9周) 遥感科学与技术2019-2</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>跨境电商与国际物流（双语）王滋承 (1-8周) 物流管理2020-1-2</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
+          <t>GNSS测量与数据处理刘智敏 (1-9周) 测绘工程2019-1-3</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>大地测量学基础张燕 (1-10周) 测绘工程2020-4-5</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>金融企业会计付莉 (1-9周) 投资学2019-1-2</t>
-        </is>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
-          <t>金融会计付莉 (1-9周) 会计学2019-1-2</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>中级财务会计（I）吴文文 (1-12周) 会计学2020-1-2</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr"/>
+          <t>地图学刘文宝 (1-8周) 地理信息科学2021-3</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>GNSS测量与数据处理苏醒 (1-9周) 遥感科学与技术2019-2</t>
+        </is>
+      </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>工程测量翟敏 (1-6,8-9周) 采矿工程2019-4</t>
+          <t>GNSS测量与数据处理刘智敏 (1-9周) 测绘工程2019-1-3</t>
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>金融企业会计付莉 (1-9周) 投资学2019-1-2</t>
-        </is>
-      </c>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr">
         <is>
-          <t>跨境电商与国际物流（双语）王滋承 (1-8周) 物流管理2020-1-2</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>金融会计付莉 (1-9周) 会计学2019-1-2</t>
-        </is>
-      </c>
+          <t>大地测量学基础张燕 (1-10周) 测绘工程2020-4-5</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>纳米材料孙炜翔 (1-8周) 材料化学2018-1-2</t>
-        </is>
-      </c>
-      <c r="X42" t="inlineStr"/>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>地图学刘文宝 (1-8周) 地理信息科学2021-3</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>GNSS测量与数据处理刘智敏 (1-9周) 测绘工程2019-1-3</t>
+        </is>
+      </c>
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>世界经济概论曲越 (1-2,4-9周) 国际经济与贸易(辅修) 2019版</t>
-        </is>
-      </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>世界经济概论曲越 (1-2,4-9周) 国际经济与贸易(辅修) 2019版</t>
-        </is>
-      </c>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="inlineStr"/>
@@ -3978,22 +4078,30 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>J14-334室</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
+          <t>J14-336室</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>矿山压力与岩层控制王俊 (1-4周) 采矿工程2019-2</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>测绘法律法规与项目管理苏醒 (1-9周) 测绘工程2019-1-2</t>
+          <t>矿山灾害预防与控制孙文斌 (1-5周) 安全工程2019-1-2</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>采煤工艺学刘奇 (1-4周) 采矿工程2019-1-2</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>岩体力学李青海 (1-5周) 采矿工程2019-2</t>
+          <t>矿井通风与安全程卫民 (1-4周) 采矿工程2019-1-2</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -4001,37 +4109,29 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>环境工程微生物（双语）陆洪省 (1-9周) 环境工程2019-1-2</t>
+          <t>矿山压力与岩层控制王俊 (1-4周) 采矿工程2019-2</t>
         </is>
       </c>
       <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>大地测量学基础郭英 (1-14周) 测绘工程2019-2</t>
-        </is>
-      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>测绘法律法规与项目管理苏醒 (1-9周) 测绘工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>采矿科学与技术（双语）蒋力帅 (1-3,5-9周) 采矿工程2018-1-2</t>
-        </is>
-      </c>
+      <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr">
         <is>
-          <t>工程测量孔巧丽 (1-9周) 采矿工程2019-2</t>
+          <t>采煤工艺学刘奇 (1-4周) 采矿工程2019-1-2</t>
         </is>
       </c>
       <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>矿井通风与安全程卫民 (1-4周) 采矿工程2019-1-2</t>
+        </is>
+      </c>
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
@@ -4051,49 +4151,69 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>J14-336室</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
+          <t>J14-338室</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大气污染控制工程唐小玲 (1-9周) 环境工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>水污染控制工程陆洪省 (1-13周) 环境工程2019-1-2</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>人因工程任大伟 (1-10周) 工业工程2019-1-2</t>
+          <t>固体废物处理与处置工程薛彦辉 (1-9周) 环境工程2019-1-2</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>仪器分析唐小玲 (1-4周) 环境工程2020-3-4</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>化工原理(2-2)王群 (1-7,10-11周) 生物工程2019-2</t>
+          <t>固体废物处理与处置工程薛彦辉 (1-9周) 环境工程2019-1-2</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>工程经济学石永奎 (1-6周) 工业工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+          <t>大气污染控制工程唐小玲 (1-9周) 环境工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>水污染控制工程陆洪省 (1-13周) 环境工程2019-1-2</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>人因工程任大伟 (1-10周) 工业工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>仪器分析唐小玲 (1-4周) 环境工程2020-3-4</t>
+        </is>
+      </c>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>水污染控制工程陆洪省 (1-11单周) 环境工程2019-1-2</t>
+        </is>
+      </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>统计与数据分析孙友霞 (1-8周) 工业工程2018-1-3</t>
+          <t>安全管理学刘音 (1-3周) 安全工程2020-1-2</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr"/>
@@ -4116,68 +4236,60 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>J14-338室</t>
+          <t>J14-340室</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>工程热力学与传热学董晓素 (1-12周) 安全工程2020-5</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>环境工程微生物（双语）高宇 (1-8周) 环境工程2019-3</t>
-        </is>
-      </c>
+          <t>无机与分析化学(2-2)刘青云 (1-8周) 矿物加工工程2021-1-3</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>重力选矿刘惠杰 (1-9周) 矿物加工工程2019-1-3</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>电工电子技术（B）袁方 (1-12周) 环境工程2020-3-4</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>建筑安全徐翠翠 (1-8周) 安全工程2018-3-4</t>
-        </is>
-      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>有机化学（2-2）王翠珍 (1-10周) 应用化学2020-1-3</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>弹性力学马志涛 (1-12周) 工程力学2019-1-2</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr"/>
+          <t>重力选矿刘惠杰 (1-9周) 矿物加工工程2019-1-3</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>无机与分析化学(2-2)刘青云 (1-8周) 矿物加工工程2021-1-3</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>建筑安全徐翠翠 (1-8周) 安全工程2018-3-4</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>有机化学（B）王翠珍 (1-6周) 环境工程2020-1-4</t>
-        </is>
-      </c>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>精细化工工艺与设备张新堂 (1-6周) 化学工程与工艺2019-1-3</t>
+        </is>
+      </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>概率论与数理统计赵义军 (1-12周) 测绘工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="Y45" t="inlineStr">
-        <is>
-          <t>有机化学（B）王翠珍 (1-6周) 环境工程2020-1-4</t>
-        </is>
-      </c>
+          <t>有机化学（2-2）王翠珍 (1-10周) 应用化学2020-1-3</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="inlineStr"/>
@@ -4197,62 +4309,54 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>J14-340室</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>化工设备基础李敏 (1-9周) 化学工程与工艺2019-1-2</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+          <t>J14-342室</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>材料腐蚀与防护魏娜 (1-4周) 金属材料工程2019-5</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>矿石学基础邱俊 (1-9周) 矿物加工工程2019-1-3</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>仪器分析于洪观 (1-8周) 矿物加工工程2019-1-3</t>
-        </is>
-      </c>
+          <t>金属热处理工艺学王淑峰 (1-7周) 金属材料工程2019-5</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>工业催化张新堂 (1-8周) 化学工程与工艺2019-1-3</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>化工设备基础李敏 (1-9周) 化学工程与工艺2019-1-2</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>开采损害与环境保护常西坤 (1-10周) 采矿工程2019-1-2</t>
+        </is>
+      </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>矿石学基础邱俊 (1-9周) 矿物加工工程2019-1-3</t>
-        </is>
-      </c>
+      <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr">
         <is>
-          <t>仪器分析于洪观 (1-8周) 矿物加工工程2019-1-3</t>
+          <t>机械设计基础（A）张弘斌 (1-3周) 金属材料工程2020-3</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>文献检索吕英海 (1-6周) 生物工程2019-1-2</t>
+          <t>材料腐蚀与防护魏娜 (1-4周) 金属材料工程2019-5</t>
         </is>
       </c>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>有机化学黄小文 (1-16周) 材料化学2020-2</t>
+        </is>
+      </c>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
@@ -4274,82 +4378,66 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>J14-342室</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>摩擦与磨损孙金全 (1-5周) 金属材料工程（焊接技术方向）2018-1-2</t>
-        </is>
-      </c>
+          <t>J14-402室</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>传热学马晓彤 (1-9周) 能源与动力工程2019-3</t>
+          <t>机械设计(A)高丽 (1-9,14-15周) 材料成型及控制工程2019-1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>高分子化学孙何靖 (1-8周) 高分子材料与工程2019-3-4</t>
+          <t>矿井设计臧传伟 (1-9周) 采矿工程2019-1-2</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>机械设计基础*鲍怀谦,王凤芹 (1-10周) 高分子材料与工程2019-3-4</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>纳米材料孙炜翔 (1-8周) 材料化学2018-1-2</t>
-        </is>
-      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>摩擦与磨损孙金全 (1-5周) 金属材料工程（焊接技术方向）2018-1-2</t>
+          <t>过程流体机械鲍怀谦,孙静 (1-9周) 过程装备与控制工程2019-1-2</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>高分子化学孙何靖 (1-8周) 高分子材料与工程2019-3-4</t>
+          <t>机械设计(A)高丽 (1-9,14-15周) 材料成型及控制工程2019-1</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>有机波谱分析邱旭 (1-8周) 高分子材料与工程2019-1-4</t>
+          <t>数控技术钟佩思 (1-7周) 机械设计制造及其自动化2019-1-2</t>
         </is>
       </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>机械设计基础*鲍怀谦,王凤芹 (1-10周) 高分子材料与工程2019-3-4</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>水力学张升堂 (1-10周) 水文与水资源工程2020-1-2</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>金属固态相变原理曹梅青 (1-6,8-9周) 金属材料工程2019-4</t>
-        </is>
-      </c>
+          <t>矿井设计臧传伟 (1-9周) 采矿工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>过程流体机械鲍怀谦,孙静 (1-9周) 过程装备与控制工程2019-1-2</t>
+        </is>
+      </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>高分子化学孙何靖 (1-8周) 高分子材料与工程2019-3-4</t>
+          <t>机械设计(A)高丽 (1-9,14周) 材料成型及控制工程2019-1</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>有机波谱分析邱旭 (1-8周) 高分子材料与工程2019-1-4</t>
+          <t>数控技术钟佩思 (1-7周) 机械设计制造及其自动化2019-1-2</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr"/>
@@ -4371,38 +4459,66 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>J14-402室</t>
+          <t>J14-403室</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>传热学衣秋杰 (1-9周) 能源与动力工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+          <t>水污染控制工程陈平,张建 (1-13周) 环境工程2019-3</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>固体废物处理与处置工程李琳 (1-9周) 环境工程2019-3</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>环境影响评价阚渝姣 (1-6周) 环境工程2019-3</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>环境工程CAD高宇 (1-2,4周) 环境工程2019-1-3</t>
+        </is>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>传热学衣秋杰 (1-9周) 能源与动力工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>固体废物处理与处置工程李琳 (1-9周) 环境工程2019-3</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>水污染控制工程陈平,张建 (1-13周) 环境工程2019-3</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>环境影响评价阚渝姣 (1-6周) 环境工程2019-3</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>环境工程CAD高宇 (1-2,4周) 环境工程2019-1-3</t>
+        </is>
+      </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>水污染控制工程陈平,张建 (1-11单周) 环境工程2019-3</t>
+        </is>
+      </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr"/>
@@ -4424,40 +4540,40 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>J14-403室</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>工程热力学与传热学李崇山 (1-12周) 安全工程2020-1-2</t>
-        </is>
-      </c>
+          <t>J14-404室</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>构造地质学张丽萍 (1-5周) 勘查技术与工程2019-1-2</t>
+          <t>数字化设计吕玉廷 (1-9周) 机械设计制造及其自动化2019-1-3</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>土力学纪巧玲,王颖 (1-12周) 交通工程2019-1-2</t>
+          <t>热工基础李佳 (1-6周) 机械设计制造及其自动化2019-3</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>重大危险源辨识与危害分析刘国明 (1-3周) 安全工程2019-3-4</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>热工基础李龙之 (1-6周) 机械设计制造及其自动化2019-1-2</t>
+        </is>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>数字化设计吕玉廷 (1-9周) 机械设计制造及其自动化2019-1-3</t>
+        </is>
+      </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>电工电子技术（B）王亚群 (1-12周) 安全工程2020-4-5</t>
+          <t>热工基础李佳 (1-6周) 机械设计制造及其自动化2019-3</t>
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
@@ -4465,21 +4581,13 @@
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr">
         <is>
-          <t>岩体力学李青海 (1-5周) 采矿工程2019-2</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>土力学纪巧玲,王颖 (1-12周) 交通工程2019-1-2</t>
-        </is>
-      </c>
+          <t>热工基础李龙之 (1-6周) 机械设计制造及其自动化2019-1-2</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>环境工程微生物（双语）乔延路 (1-9周) 环境工程（海洋环境方向）2019</t>
-        </is>
-      </c>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr"/>
@@ -4501,36 +4609,48 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>J14-404室</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>冲压工艺与模具设计王翠香 (1-8周) 材料成型及控制工程2018-1-2</t>
-        </is>
-      </c>
+          <t>J14-405室</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>物流管理信息系统曾丽君 (1-8周) 物流管理2020-2</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>外贸英文函电（双语课程）于晓燕 (1-8周) 国际经济与贸易2020-1-2</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>博弈论导论姜力文 (1-8周) 物流管理2020-1-2</t>
+        </is>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>冲压工艺与模具设计王翠香 (1-8周) 材料成型及控制工程2018-1-2</t>
-        </is>
-      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>物流管理信息系统曾丽君 (1-8周) 物流管理2020-2</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>外贸英文函电（双语课程）于晓燕 (1-8周) 国际经济与贸易2020-1-2</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr">
         <is>
-          <t>岩体力学陈军涛 (1-5周) 采矿工程2019-3</t>
+          <t>博弈论导论姜力文 (1-8周) 物流管理2020-1-2</t>
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
@@ -4538,11 +4658,7 @@
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr">
-        <is>
-          <t>冲压工艺与模具设计王翠香 (1-8周) 材料成型及控制工程2018-1-2</t>
-        </is>
-      </c>
+      <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
@@ -4562,68 +4678,68 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>J14-405室</t>
+          <t>J14-406室</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>人员素质测评与职业发展韩帅 (1-7周) 工商管理2019-1-2</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
+          <t>机械设计基础（A）周海萍 (1-3,7-11周) 金属材料工程2020-4</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>金属热处理工艺学曹梅青 (1-7周) 金属材料工程2019-3-4</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>国际贸易(B)马风涛 (1-9周) 金融学2019-1-2</t>
-        </is>
-      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>运筹学（B）庄晓雯 (1-9周) 工商管理2019-2</t>
+          <t>材料表面与界面李好 (1-8周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>材料分析测试技术迟静 (1-6周) 金属材料工程2019-3</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>国际金融学聂国栋 (1-9周) 金融学2019-1-2</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>人员素质测评与职业发展韩帅 (1-7周) 工商管理2019-1-2</t>
-        </is>
-      </c>
+          <t>机械设计基础（A）周海萍 (1-3,7-11周) 金属材料工程2020-4</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>国际贸易(B)马风涛 (1-9周) 金融学2019-1-2</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>公共投资学张伟 (1-9周) 投资学2019-1-2</t>
-        </is>
-      </c>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr">
         <is>
-          <t>现代物流前沿专题姜力文 (1-9周) 物流管理2019-1-2</t>
+          <t>机械设计基础（A）周海萍 (1-3,7-11周) 金属材料工程2020-4</t>
         </is>
       </c>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>金属热处理工艺学曹梅青 (1-7周) 金属材料工程2019-3-4</t>
+        </is>
+      </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>国际金融学聂国栋 (1-9周) 金融学2019-1-2</t>
-        </is>
-      </c>
-      <c r="Y51" t="inlineStr"/>
+          <t>材料分析测试技术迟静 (1-6周) 金属材料工程2019-3</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>材料表面与界面李好 (1-7周) 材料化学2019-1-2</t>
+        </is>
+      </c>
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr"/>
@@ -4643,34 +4759,34 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>J14-406室</t>
+          <t>J14-407室</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>铸造工艺学王淑峰 (1-5,7-8周) 金属材料工程2018-1-3</t>
+          <t>材料分析测试技术迟静 (1-6周) 金属材料工程2019-1</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>材料化学（双语教学）张芬 (1-6周) 材料化学2018-1-2</t>
+          <t>材料分析测试技术迟静 (1-6周) 金属材料工程2019-2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>机械设计基础*王智伟,张玉龙 (1-10周) 高分子材料与工程2019-1-2</t>
+          <t>聚合物加工原理与成型工艺董琪 (1-2周) 高分子材料与工程2019-1-2</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>物理化学（A）孙海清 (1-4,6-12周) 新能源材料与器件2020-1</t>
+          <t>聚合物加工原理与成型工艺董琪 (1-2周) 高分子材料与工程2019-3-4</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>无机材料生产设备姚树玉 (1-4周) 无机非金属材料工程2018</t>
+          <t>材料腐蚀与防护岳丽杰 (1-9周) 金属材料工程2019-3-4</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -4678,38 +4794,38 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>物理化学（A）刘蕾 (1-8周) 高分子材料与工程2020-1-3</t>
+          <t>矿山压力与岩层控制张培森 (1-10周) 采矿工程（智能开采方向）2019-2</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>材料化学（双语教学）张芬 (1-6周) 材料化学2018-1-2</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>物理化学（A）孙海清 (1-4,6-12周) 新能源材料与器件2020-1</t>
-        </is>
-      </c>
+          <t>材料分析测试技术迟静 (1-6周) 金属材料工程2019-1</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr">
         <is>
-          <t>机械设计基础*王智伟,张玉龙 (1-10周) 高分子材料与工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr"/>
+          <t>材料腐蚀与防护岳丽杰 (1-9周) 金属材料工程2019-3-4</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>聚合物加工原理与成型工艺董琪 (1-2周) 高分子材料与工程2019-1-2</t>
+        </is>
+      </c>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr">
         <is>
-          <t>物理化学（A）刘蕾 (1-8周) 高分子材料与工程2020-1-3</t>
+          <t>材料分析测试技术迟静 (1-6周) 金属材料工程2019-2</t>
         </is>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>材料化学（双语教学）张芬 (1-6周) 材料化学2018-1-2</t>
+          <t>材料科学基础（B）丁建旭 (1-8周) 新能源材料与器件2020-1</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr"/>
@@ -4732,70 +4848,66 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>J14-407室</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>化工原理（B）周海峰 (1-11周) 高分子材料与工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>金属固态相变原理曹梅青 (1-6,8-9周) 金属材料工程2019-5</t>
-        </is>
-      </c>
+          <t>J14-408室</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>金属成型原理与工艺张春芝 (1-4周) 金属材料工程2019-4-5</t>
+          <t>GNSS测量与数据处理崔健慧 (1-9周) 遥感科学与技术2019-3</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>误差理论与测量平差基础石波 (1-12周) 测绘工程2020-4-5</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>环境工程CAD张林林 (1-2,4周) 环境工程（海洋环境方向）2019</t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>金属固态相变原理曹梅青 (1-6,8-9周) 金属材料工程2019-5</t>
+          <t>安全管理学黄冬梅 (1-5周) 安全工程2020-3-4</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>化工原理（B）周海峰 (1-11周) 高分子材料与工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>金属成型原理与工艺张春芝 (1-4周) 金属材料工程2019-4-5</t>
-        </is>
-      </c>
+          <t>GNSS测量与数据处理崔健慧 (1-5周) 遥感科学与技术2019-3</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>无机材料生产设备姚树玉 (1-4周) 无机非金属材料工程2018</t>
-        </is>
-      </c>
+      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>环境工程CAD张林林 (1-2,4周) 环境工程（海洋环境方向）2019</t>
+        </is>
+      </c>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>物理化学（A）孙海清 (1-4,6-12周) 新能源材料与器件2020-1</t>
-        </is>
-      </c>
+      <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr">
         <is>
-          <t>金属成型原理与工艺张春芝 (1-4周) 金属材料工程2019-4-5</t>
+          <t>安全管理学黄冬梅 (1-5周) 安全工程2020-3-4</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr"/>
-      <c r="AA53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>误差理论与测量平差基础石波 (1-12周) 测绘工程2020-4-5</t>
+        </is>
+      </c>
       <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="inlineStr"/>
@@ -4813,17 +4925,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>J14-408室</t>
+          <t>J14-409室</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>防火与防爆技术刘国明 (1-4周) 安全工程（应急管理方向）2019</t>
+          <t>无机与分析化学（2-2）付民 (1-8周) 化学工程与工艺2021-1-3</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>无机材料专业英语徐国纲 (1-8周) 无机非金属材料工程2018班,无机非金属材料工程（新能源与环境材料）2018</t>
+          <t>化工原理（2-1）张治山 (1-12周) 化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -4831,42 +4943,62 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>测绘法律法规与项目管理苏醒 (1-9周) 测绘工程2019-3</t>
+          <t>海洋生物技术李慧娟 (1-8周) 生物工程2019-1-2</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>计算机程序设计(VF)侯艳辉 (1-6周) 工商管理(体育)2020</t>
+          <t>生化分离工程(双语)崔志芳 (1-10周) 生物工程2019-1</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>煤化工工艺学梁鹏 (1-8周) 化学工程与工艺2019-1-3</t>
+        </is>
+      </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>高分子化学韩永芹 (1-8周) 材料化学2019-1-2</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr"/>
+          <t>无机与分析化学（2-2）付民 (1-8周) 化学工程与工艺2021-1-3</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>化工原理（2-1）张治山 (1-12周) 化学工程与工艺2020-1-3</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>大地测量学基础郭金运 (1-14周) 测绘工程2019-3</t>
+          <t>浮选李琳 (1-9周) 矿物加工工程2019-1-3</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>计算机程序设计(VF)侯艳辉 (1-6周) 工商管理(体育)2020</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr"/>
+          <t>发酵工程孟龙 (1-10周) 生物工程2019-1</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>煤化工工艺学梁鹏 (1-8周) 化学工程与工艺2019-1-3</t>
+        </is>
+      </c>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>海洋生物技术李慧娟 (1-8周) 生物工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>矿山环境评价概论王俊祥 (1-7周) 矿物加工工程2019-1-3</t>
+        </is>
+      </c>
       <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr"/>
@@ -4886,42 +5018,70 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>J14-409室</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>分子生物学吕英海 (1-7,10-11周) 生物工程2019-1</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+          <t>J14-410室</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>构造地质学孟元库 (1-8周) 资源勘查工程2020-2-3</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>矿井设计李占海 (1-9周) 采矿工程2019-3-4</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>体育俱乐部经营与管理李敏 (1-9周) 工商管理(社会体育指导与管理)2019</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>质量管理与可靠性石永奎 (1周) 工业工程2019-1-2</t>
+        </is>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>构造地质学孟元库 (1-8周) 资源勘查工程2020-2-3</t>
+        </is>
+      </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>矿井设计李占海 (1-9周) 采矿工程2019-3-4</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>质量管理与可靠性石永奎 (1周) 工业工程2019-1-2</t>
+        </is>
+      </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>化工设备基础焦甜甜 (1-9周) 化学工程与工艺2019-3</t>
-        </is>
-      </c>
+      <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>构造地质学孟元库 (1-8周) 资源勘查工程2020-2-3</t>
+        </is>
+      </c>
       <c r="Z55" t="inlineStr"/>
-      <c r="AA55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>体育俱乐部经营与管理李敏 (1-9周) 工商管理(社会体育指导与管理)2019</t>
+        </is>
+      </c>
       <c r="AB55" t="inlineStr"/>
       <c r="AC55" t="inlineStr"/>
       <c r="AD55" t="inlineStr"/>
@@ -4939,42 +5099,66 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>J14-410室</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
+          <t>J14-411室</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>制冷原理与技术孔祥强 (1-8周) 能源与动力工程2019-1-3</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>电工电子技术（B）王亚群 (1-12周) 安全工程2020-4-5</t>
+          <t>能源管理牟鸣飞 (1-9周) 能源与动力工程2019-1-3</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>汽轮机原理李志敏 (1-9周) 能源与动力工程2019-1-3</t>
+        </is>
+      </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>会计学(B)刘英姿 (1-7周) 工商管理2020-1-2</t>
+          <t>普通化学赵媛媛 (1-8周) 能源与动力工程2019-1-3</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>制冷原理与技术孔祥强 (1-8周) 能源与动力工程2019-1-3</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>汽轮机原理李志敏 (1-9周) 能源与动力工程2019-1-3</t>
+        </is>
+      </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>会计学(B)刘英姿 (1-8周) 工商管理2020-1-2</t>
-        </is>
-      </c>
-      <c r="T56" t="inlineStr"/>
+          <t>普通化学赵媛媛 (1-8周) 能源与动力工程2019-1-3</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>能源管理牟鸣飞 (1-9周) 能源与动力工程2019-1-3</t>
+        </is>
+      </c>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>制冷原理与技术孔祥强 (1-7周) 能源与动力工程2019-1-3</t>
+        </is>
+      </c>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
@@ -4996,26 +5180,34 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>J14-411室</t>
+          <t>J14-412室</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>工厂供电常龙,李洪宇 (1-3,8-13周) 机械电子工程(留学生)2018</t>
+          <t>热工基础王建伟 (1-6周) 机械设计制造及其自动化2019-4-5</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>热加工工艺孙爱芹 (1-2,7-12周) 机械设计制造及其自动化2018-1-5</t>
+          <t>数字化设计王翠香 (1-9周) 机械设计制造及其自动化2019-4-5</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>有限元方法田和强 (1-9周) 机械设计制造及其自动化2019-1-3</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>有限元方法韩善灵 (1-9周) 机械设计制造及其自动化2019-4-5</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>岩体力学陈军涛 (1-5周) 采矿工程2019-3</t>
+          <t>数控技术于涛 (1-7周) 机械设计制造及其自动化2019-3-5</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -5023,26 +5215,34 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>高分子化学白瑞钦 (1-8周) 高分子材料与工程2019-1-2</t>
+          <t>热工基础王建伟 (1-6周) 机械设计制造及其自动化2019-4-5</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>热加工工艺孙爱芹 (1-2,7-12周) 机械设计制造及其自动化2018-1-5</t>
+          <t>数字化设计王翠香 (1-9周) 机械设计制造及其自动化2019-4-5</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>工程流体力学朱绪力 (1-7周) 机械电子工程2019-4-5</t>
-        </is>
-      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>有限元方法韩善灵 (1-9周) 机械设计制造及其自动化2019-4-5</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>数控技术于涛 (1-7周) 机械设计制造及其自动化2019-3-5</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>有限元方法田和强 (1-9周) 机械设计制造及其自动化2019-1-3</t>
+        </is>
+      </c>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
@@ -5065,66 +5265,58 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>J14-412室</t>
+          <t>J14-413室</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>矿山机械曹连民,张永超,张媛,周满山 (1-3,7-12周) 机械电子工程2018-3</t>
-        </is>
-      </c>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>矿山机械包继华,曹连民,张永超 (1-3,7-12周) 机械电子工程2018-5</t>
+          <t>管理沟通周志刚 (1-8周) 工商管理(体育)2021</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>运营管理(A)于泉 (1-13周) 工商管理(社会体育指导与管理)2019</t>
+        </is>
+      </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>传热学马晓彤 (1-9周) 能源与动力工程2019-3</t>
+          <t>计量经济学（A）武传宝 (1-10周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>矿山机械包继华,曹连民,张永超 (1-3,7-12周) 机械电子工程2018-5</t>
-        </is>
-      </c>
+      <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>矿山机械曹连民,张永超,张媛,周满山 (1-3,7-12周) 机械电子工程2018-3</t>
-        </is>
-      </c>
+      <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
         <is>
-          <t>矿山机械包继华,曹连民,张永超 (1-3,7-12周) 机械电子工程2018-5</t>
+          <t>运营管理(A)于泉 (1-13周) 工商管理(社会体育指导与管理)2019</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr">
         <is>
-          <t>传热学衣秋杰 (1-9周) 能源与动力工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="Y58" t="inlineStr">
-        <is>
-          <t>矿山机械曹连民,张永超,张媛,周满山 (1-3,7-12周) 机械电子工程2018-3</t>
-        </is>
-      </c>
+          <t>计量经济学（A）武传宝 (1-10周) 投资学2019-1-2</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>管理沟通周志刚 (1-8周) 工商管理(体育)2021</t>
+        </is>
+      </c>
       <c r="AB58" t="inlineStr"/>
       <c r="AC58" t="inlineStr"/>
       <c r="AD58" t="inlineStr"/>
@@ -5142,68 +5334,52 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>J14-413室</t>
+          <t>J14-414室</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>机电一体化系统设计石浩,王德堂 (1-2,7-12周) 机械设计制造及其自动化2018-1-5</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
+          <t>财务管理(A)赵桐 (1-12周) 工商管理(体育)2020</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>大地测量学基础郭金运 (1-10周) 测绘工程2020-3</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>工程流体力学朱绪力 (1-7周) 机械电子工程2019-4-5</t>
-        </is>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>特种加工技术鲍怀谦 (1-2,7-13周) 机械设计制造及其自动化2018-1-5</t>
+          <t>ERP原理与应用(B)王书伟 (1-8周) 工商管理(体育)2020</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>机电一体化系统设计石浩,王德堂 (1-2,7-12周) 机械设计制造及其自动化2018-1-5</t>
+          <t>财务管理(A)赵桐 (1-12周) 工商管理(体育)2020</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>生产计划与管理张国松 (1-2,7-12周) 机械设计制造及其自动化2018-4-5</t>
-        </is>
-      </c>
+      <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>生产计划与管理 田莹 (1-2,8-12周) 机械设计制造及其自动化2018-1-3</t>
-        </is>
-      </c>
+      <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>特种加工技术鲍怀谦 (1-2,7-13周) 机械设计制造及其自动化2018-1-5</t>
-        </is>
-      </c>
+      <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr">
         <is>
-          <t>生产计划与管理张国松 (1-2,7-12周) 机械设计制造及其自动化2018-4-5</t>
-        </is>
-      </c>
-      <c r="Y59" t="inlineStr">
-        <is>
-          <t>生产计划与管理 田莹 (1-2,8-12周) 机械设计制造及其自动化2018-1-3</t>
-        </is>
-      </c>
+          <t>ERP原理与应用(B)王书伟 (1-8周) 工商管理(体育)2020</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="inlineStr"/>
@@ -5223,41 +5399,53 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>J14-414室</t>
+          <t>J14-416室</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>有机化学韩玉玺 (1-16周) 高分子材料与工程2020-3</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>机械设计基础（A）张弘斌 (1-3周) 金属材料工程2020-3</t>
+        </is>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>地球化学陈桥 (1-8周) 地质工程2019-1-3</t>
-        </is>
-      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>矿山压力与岩层控制宁建国 (1-10周) 采矿工程（智能开采方向）2019-1</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr">
         <is>
-          <t>财务分析赵桐 (1-9周) 会计学2019-2</t>
+          <t>有机化学韩玉玺 (1-16周) 高分子材料与工程2020-3</t>
         </is>
       </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>金属热处理工艺学王淑峰 (1-7周) 金属材料工程2019-5</t>
+        </is>
+      </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>岩石学杜龙 (1-6周) 水文与水资源工程2020-1</t>
+          <t>机械设计基础（A）张弘斌 (1-3周) 金属材料工程2020-3</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr"/>
@@ -5280,32 +5468,24 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>J14-416室</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>市场营销学(D)高军红 (1-9周) 物流管理2018-1-2</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>中级财务会计（I）吴文文 (1-12周) 会计学2020-1-2</t>
-        </is>
-      </c>
+          <t>J14-418室</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>矿山安全黄启铭 (1-9周) 安全工程（应急管理方向）2019</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>计算材料学概论韩野 (1-8周) 金属材料工程2018-1-3班,金属材料工程（焊接技术方向）2018-1-2班,无机非金属材料工程2018班,无机非金属材料工程（新能源与环境材料）2018</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>财务分析赵桐 (1-9周) 会计学2019-2</t>
-        </is>
-      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>矿物学沈晓丽 (1-6周) 水文与水资源工程2021-2</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
@@ -5315,18 +5495,14 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>经济法（B）王彩霞 (1-9周) 工商管理2018-1-2</t>
-        </is>
-      </c>
+      <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr">
         <is>
-          <t>计算材料学概论韩野 (1-8周) 金属材料工程2018-1-3班,金属材料工程（焊接技术方向）2018-1-2班,无机非金属材料工程2018班,无机非金属材料工程（新能源与环境材料）2018</t>
+          <t>矿物学沈晓丽 (1-6周) 水文与水资源工程2021-2</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr"/>
@@ -5349,55 +5525,91 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>J14-418室</t>
+          <t>J14-419室</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>应用地球物理场论翟培合 (1-8周) 勘查技术与工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要曹丙燕 (1-12周) 环境工程2021-1-4</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>思想政治理论课综合实践常春,毛雪婷,史璇,叶小青,周月 (1-2,15-16周) 机械电子工程2020-1-4</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>高等数学（A）（2-2）李 刚(sx) (1-14周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
+        </is>
+      </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>岩石学孔凡梅,王雪 (1-3周) 水文与水资源工程2020-2</t>
+          <t>高等数学（A）（2-2）宋治涛 (1-14周) 工程力学2021-1-2班,工业工程2021-1-2</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>应用地球物理场论翟培合 (1-8周) 勘查技术与工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>社会主义发展史石海龙 (1-8周) 大数据管理与应用2021-1-2班,会计学2021-1-2</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要冯秀芹 (1-12周) 机械电子工程2021-1-4</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>大学生职业发展与就业创业指导韩雪丽,孙金香 (1-8周) 临班397</t>
+          <t>社会主义发展史王忠春 (1-8周) 机械电子工程2021-1-4</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>选矿厂设计崔广文 (1-5周) 矿物加工工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>思想政治理论课综合实践冯秀芹 (1-2,15-16周) 新能源材料与器件2020-1-2班,材料化学2020-1-2</t>
+        </is>
+      </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>国际经济法学韩天竹,牛哲莉 (1-6,8周) 法学2019-1-3</t>
-        </is>
-      </c>
-      <c r="U62" t="inlineStr"/>
+          <t>中国近现代史纲要曹丙燕 (1-12周) 环境工程2021-1-4</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>思想政治理论课综合实践孙健 (1-2,14-15周) 遥感科学与技术2020-1-3班,测绘工程2020-5</t>
+        </is>
+      </c>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr">
         <is>
-          <t>岩石学孔凡梅,王雪 (1-6周) 水文与水资源工程2020-2</t>
-        </is>
-      </c>
-      <c r="Y62" t="inlineStr"/>
+          <t>中国近现代史纲要冯秀芹 (1-12周) 机械电子工程2021-1-4</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要叶小青 (1-12周) 机械设计制造及其自动化2021-1-4</t>
+        </is>
+      </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>大学生职业发展与就业创业指导韩雪丽,孙金香 (1-8周) 临班397</t>
+          <t>社会主义发展史杨爱东 (1-8周) 机械设计制造及其自动化2021-1-4</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr"/>
@@ -5418,32 +5630,28 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>J14-419室</t>
+          <t>J14-420室</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>构造地质学金爱文 (1-8,10周) 资源勘查工程（海洋矿产资源方向）2019</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>马克思主义基本原理尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
-        </is>
-      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>马克思主义基本原理魏丽萍 (1-12周) 物流管理2020-1-2班,国际经济与贸易2020-1-2</t>
+          <t>普通化学（A）高猛 (1-8周) 环境工程2021-3</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>安全管理学苗德俊 (1-8周) 安全工程2020-5</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
@@ -5451,20 +5659,24 @@
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr">
         <is>
-          <t>马克思主义基本原理王建志 (1-12周) 金融学2020-1-2班,会计学2020-1-2</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>保险法慕晓琛,赵丽莉 (1-16周) 法学（海洋法方向）2019班,法学2019-1-3</t>
-        </is>
-      </c>
+          <t>误差理论与测量平差基础陶秋香 (1-8周) 遥感科学与技术2020-1-2</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>工程测量学于胜文 (1-12周) 测绘工程2019-1</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>普通化学（A）高猛 (1-8周) 环境工程2021-3</t>
+        </is>
+      </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>构造地质学金爱文 (1-10周) 资源勘查工程（海洋矿产资源方向）2019</t>
+          <t>安全管理学苗德俊 (1-8周) 安全工程2020-5</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr"/>
@@ -5487,44 +5699,68 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>J14-420室</t>
+          <t>J14-421室</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要薛锋 (1-12周) 地质工程2021-1-3班,勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>高等数学（A）（2-2）宋治涛 (1-14周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>数字测图原理与方法陈传法 (1-8周) 地理信息科学2020-1-3</t>
+          <t>马克思主义基本原理李岩 (1-12周) 新能源材料与器件2020-1-2班,材料化学2020-1-2</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>社会主义发展史夏颖 (1-8周) 国际经济与贸易2021-1-2班,物流管理2021-1-2</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要孙冬青 (1-12周) 大数据管理与应用2021-1-2班,会计学2021-1-2</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>数字测图原理与方法陈传法 (1-8周) 地理信息科学2020-1-3</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>思想政治理论课综合实践姜瑞学 (1-2,15-16周) 工程力学2020-1-2班,工业工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>马克思主义基本原理李岩 (1-12周) 新能源材料与器件2020-1-2班,材料化学2020-1-2</t>
+        </is>
+      </c>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr">
         <is>
-          <t>构造地质学张丽萍 (1-3周) 勘查技术与工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="Y64" t="inlineStr"/>
+          <t>社会主义发展史夏颖 (1-8周) 国际经济与贸易2021-1-2班,物流管理2021-1-2</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>社会主义发展史冯秀芹 (1-8周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="inlineStr"/>
@@ -5544,36 +5780,52 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>J14-421室</t>
+          <t>J14-424室</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>采矿学黄万朋 (1-8周) 采矿工程（智能开采方向）2019-2</t>
+          <t>构造地质学刘海燕 (1-8周) 资源勘查工程2020-1</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>数字摄影测量原理与方法刘健辰 (1-12周) 遥感科学与技术2019-1</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>大地测量学基础郭金运 (1-14周) 测绘工程2019-3</t>
+          <t>金属材料工程专业英语吴楠楠 (1-8周) 金属材料工程2019-1</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>矿物学贾海波,杨仁超 (1-6周) 水文与水资源工程2021-1</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>矿山安全黄启铭 (1-9周) 安全工程（应急管理方向）2019</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>构造地质学刘海燕 (1-8周) 资源勘查工程2020-1</t>
+        </is>
+      </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr">
         <is>
-          <t>工程概论王海鑫 (1-8周) 遥感科学与技术2020-1-3</t>
+          <t>金属材料工程专业英语吴楠楠 (1-8周) 金属材料工程2019-1</t>
         </is>
       </c>
       <c r="T65" t="inlineStr"/>
@@ -5582,10 +5834,14 @@
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr">
         <is>
-          <t>大地测量学基础韩晓冬 (1-8周) 测绘工程2019-1</t>
-        </is>
-      </c>
-      <c r="Y65" t="inlineStr"/>
+          <t>矿物学贾海波,杨仁超 (1-6周) 水文与水资源工程2021-1</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>构造地质学刘海燕 (1-8周) 资源勘查工程2020-1</t>
+        </is>
+      </c>
       <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="inlineStr"/>
@@ -5605,7 +5861,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>J14-424室</t>
+          <t>J14-426室</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -5614,34 +5870,26 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>网上支付与结算王松 (1-9周) 电子商务2018-1-2</t>
-        </is>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>铸造工艺学王淑峰 (1-8周) 金属材料工程2018-1-3</t>
-        </is>
-      </c>
+      <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>网上支付与结算王松 (1-9周) 电子商务2018-1-2</t>
-        </is>
-      </c>
+      <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
       <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>聚合物加工原理与成型工艺董琪 (1-2周) 高分子材料与工程2019-3-4</t>
+        </is>
+      </c>
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr"/>
       <c r="AA66" t="inlineStr"/>
@@ -5662,39 +5910,79 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>J14-426室</t>
+          <t>J14-428室</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>材料分析测试技术汪静 (1-12周) 材料化学2019-2</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>工程制图应用袁义坤 (1-8周) 金属材料工程2020-3-4</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr"/>
+          <t>电工电子技术（B）王亚群 (1-7,9-10周) 采矿工程2020-4-6</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>矿山灾害预防与控制李杨杨 (1-5周) 安全工程2019-3-4</t>
+        </is>
+      </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>弹性力学（一）马志涛 (1-12周) 工程力学2020-1-2</t>
+        </is>
+      </c>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>毛泽东思想和中国特色社会主义理论体系概论孙绪民 (1-8,11-14周) 高分子材料与工程2020-1-3</t>
-        </is>
-      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>环境专业英语吴慧峤 (1-6周) 环境工程2020-3</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>电工电子技术（B）窦刚 (1-7,9-10周) 采矿工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>电工电子技术（B）王亚群 (1-7,9-10周) 采矿工程2020-4-6</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>矿山灾害预防与控制李杨杨 (1-5周) 安全工程2019-3-4</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>材料分析测试技术汪静 (1-12周) 材料化学2019-2</t>
+        </is>
+      </c>
       <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>弹性力学（一）马志涛 (1-12周) 工程力学2020-1-2</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>电工电子技术（B）窦刚 (1-7,9-10周) 采矿工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>环境专业英语吴慧峤 (1-6周) 环境工程2020-3</t>
+        </is>
+      </c>
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
@@ -5715,47 +6003,63 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>J14-428室</t>
+          <t>J14-430室</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>误差理论与测量平差基础陶秋香 (1-12周) 测绘工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>大地测量学基础郭英 (1-10周) 测绘工程2020-1</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>海洋科学导论朱金山 (1-6周) 测绘工程2020-1-5</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>C#测绘应用程序设计刘如飞 (1-8周) 测绘工程2020-1-2</t>
+        </is>
+      </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>有机化学（2-2）高登征 (1-8周) 生物工程2020-1-2</t>
+          <t>分析化学陈伟 (1-8周) 应用化学2021-2</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>海洋科学导论朱金山 (1-6周) 测绘工程2020-1-5</t>
+        </is>
+      </c>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr">
         <is>
-          <t>采矿科学与技术（双语）张学朋 (1-9周) 采矿工程2018-3-4</t>
-        </is>
-      </c>
-      <c r="T68" t="inlineStr"/>
+          <t>大地测量学基础郭英 (1-10周) 测绘工程2020-1</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>误差理论与测量平差基础陶秋香 (1-12周) 测绘工程2020-1-2</t>
+        </is>
+      </c>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>电工电子技术(B)窦刚 (1-11周) 工业工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="X68" t="inlineStr">
-        <is>
-          <t>力学学科前沿房凯 (1-4周) 工程力学2018-1-3</t>
-        </is>
-      </c>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="inlineStr"/>
@@ -5776,43 +6080,59 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>J14-430室</t>
+          <t>J14-432室</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>金属材料工程专业英语张春芝 (1-8周) 金属材料工程2019-3</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>地理信息系统原理柳林 (1-12周) 地理信息科学2020-1-2</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>普通化学（A）崔立强 (1-8周) 环境工程2021-1-2</t>
+        </is>
+      </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>环境专业英语乔延路 (1-6周) 环境工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>金属材料工程专业英语张春芝 (1-8周) 金属材料工程2019-3</t>
+        </is>
+      </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>地理信息系统原理柳林 (1-12周) 地理信息科学2020-1-2</t>
-        </is>
-      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>聚合物加工原理与成型工艺董琪 (1-2周) 材料化学2019-1-2</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>测绘法律法规与项目管理苏醒 (1-9周) 测绘工程2019-3</t>
-        </is>
-      </c>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>普通化学（A）崔立强 (1-8周) 环境工程2021-1-2</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>环境专业英语乔延路 (1-6周) 环境工程2020-1-2</t>
+        </is>
+      </c>
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr"/>
       <c r="AA69" t="inlineStr"/>
@@ -5833,39 +6153,47 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>J14-432室</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>岩土钻掘工程学冯建国 (1-8周) 地质工程2019-2</t>
-        </is>
-      </c>
+          <t>J14-434室</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>机电一体化系统设计谷明霞,张媛 (1-9周) 机械电子工程2019-1-2</t>
+        </is>
+      </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>岩土钻掘工程学冯建国 (1-8周) 地质工程2019-2</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>环境专业英语李晓 (1-6周) 环境工程2020-4</t>
+        </is>
+      </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>机电一体化系统设计谷明霞,张媛 (1-9周) 机械电子工程2019-1-2</t>
+        </is>
+      </c>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>环境专业英语李晓 (1-6周) 环境工程2020-4</t>
+        </is>
+      </c>
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr"/>
       <c r="AA70" t="inlineStr"/>
@@ -5886,38 +6214,54 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>J14-434室</t>
+          <t>J14-436室</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>化工原理李敏 (1-15,17-19周) 应用化学2019-1-2</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>精细有机合成单元反应黄仁和 (1-8周) 应用化学2019-1-3</t>
+        </is>
+      </c>
       <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>岩石学韩超 (1-8周) 地质工程2020-1</t>
-        </is>
-      </c>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>化工安全与环保徐冬梅 (1-8周) 化学工程与工艺2019-3</t>
+        </is>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>计算机绘图陈宁 (1-8周) 应用化学2019-1-3</t>
+        </is>
+      </c>
       <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>工程地质专业英语程燕君,张军建 (1-4周) 地质工程2019-2</t>
-        </is>
-      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>精细有机合成单元反应黄仁和 (1-8周) 应用化学2019-1-3</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>岩石学韩超 (1-8周) 地质工程2020-1</t>
+          <t>生物制药工艺学李桂江 (1-8周) 生物工程2019-1</t>
         </is>
       </c>
       <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>化工安全与环保徐冬梅 (1-8周) 化学工程与工艺2019-3</t>
+        </is>
+      </c>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
@@ -5925,7 +6269,7 @@
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>工程地质专业英语程燕君,张军建 (1-4周) 地质工程2019-2</t>
+          <t>生物制药工艺学李桂江 (1-8周) 生物工程2019-1</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr"/>
@@ -5947,59 +6291,63 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>J14-436室</t>
+          <t>J14-438室</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>电工电子技术（B）王亚群 (1-12周) 生物工程2020-1-2</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>有机化学（2-2）高登征 (1-8周) 生物工程2020-1-2</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>化工原理(2-2)王群 (1-7,10-11周) 生物工程2019-2</t>
-        </is>
-      </c>
+          <t>空间大地测量学基础郭金运 (1-9周) 测绘工程2019-3</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>误差理论与测量平差基础许军 (1-12周) 测绘工程2020-3</t>
+        </is>
+      </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>矿石可选性研究刘晓亮 (1-5周) 矿物加工工程2018-3</t>
+          <t>大地测量学基础韩晓冬 (1-10周) 测绘工程2020-2</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>分子生物学高中政 (1-7,10-11周) 生物工程2019-2</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>空间大地测量学基础郭金运 (1-9周) 测绘工程2019-3</t>
+        </is>
+      </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>基础生物学闫华晓 (1-7,10-14周) 生物工程2019-1</t>
+          <t>微波遥感王志勇 (1-9周) 遥感科学与技术2019-1-3</t>
         </is>
       </c>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>大地测量学基础韩晓冬 (1-10周) 测绘工程2020-2</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>误差理论与测量平差基础许军 (1-12周) 测绘工程2020-3</t>
+        </is>
+      </c>
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr">
-        <is>
-          <t>基础生物学闫华晓 (1-7,10-14周) 生物工程2019-1</t>
-        </is>
-      </c>
-      <c r="X72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>微波遥感王志勇 (1-9周) 遥感科学与技术2019-1-3</t>
+        </is>
+      </c>
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
@@ -6020,47 +6368,63 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>J14-438室</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
+          <t>J14-440室</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>无机与分析化学(2-2)李春露 (1-8周) 矿物加工工程2021-1-3</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>化工过程控制张亚青 (1-8周) 化学工程与工艺2019-1-3</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>化工安全与环保梁鹏 (1-8周) 化学工程与工艺2019-1-2</t>
+        </is>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>有机化学（2-2）陈勇 (1-10周) 应用化学2020-1-3</t>
+        </is>
+      </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>地理信息系统原理刘洪强 (1-12周) 地理信息科学2020-3</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr"/>
+          <t>微生物遗传学吕英海 (1-9周) 生物工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>无机与分析化学(2-2)李春露 (1-8周) 矿物加工工程2021-1-3</t>
+        </is>
+      </c>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr">
         <is>
-          <t>化工过程控制张亚青 (1-8周) 化学工程与工艺2019-1-3</t>
-        </is>
-      </c>
-      <c r="S73" t="inlineStr"/>
+          <t>工业发酵分析孟龙 (1-8周) 生物工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>化工安全与环保梁鹏 (1-8周) 化学工程与工艺2019-1-2</t>
+        </is>
+      </c>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr">
-        <is>
-          <t>地理信息系统原理刘洪强 (1-12周) 地理信息科学2020-3</t>
-        </is>
-      </c>
-      <c r="X73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>有机化学（2-2）陈勇 (1-10周) 应用化学2020-1-3</t>
+        </is>
+      </c>
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr"/>
       <c r="AA73" t="inlineStr"/>
@@ -6081,48 +6445,48 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>J14-440室</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>基础生物学孟龙 (1-7,10-14周) 生物工程2019-2</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>化工原理(2-2)马艺心 (1-7,10-11周) 生物工程2019-1</t>
-        </is>
-      </c>
+          <t>J14-442室</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>聚合物流变学*赵丽芬 (1-8周) 高分子材料与工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>有机化学黄小文 (1-16周) 材料化学2020-2</t>
+        </is>
+      </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>化工仪表及自动化牛海丽 (1-3,5-7,10周) 生物工程2019-1-2</t>
+          <t>金属材料工程专业英语白雪 (1-8周) 金属材料工程2019-2</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>分子生物学吕英海 (1-7,10-11周) 生物工程2019-1</t>
-        </is>
-      </c>
+      <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>基础生物学孟龙 (1-7,10-14周) 生物工程2019-2</t>
+          <t>金属热处理工艺学孙金全 (1-7周) 金属材料工程2019-1-2</t>
         </is>
       </c>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>聚合物流变学*赵丽芬 (1-8周) 高分子材料与工程2019-1-2</t>
+        </is>
+      </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>化工原理(2-2)马艺心 (1-7,10-11周) 生物工程2019-1</t>
+          <t>金属材料工程专业英语白雪 (1-8周) 金属材料工程2019-2</t>
         </is>
       </c>
       <c r="T74" t="inlineStr"/>
@@ -6131,7 +6495,7 @@
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr">
         <is>
-          <t>化工仪表及自动化牛海丽 (1-4,6-7,10周) 生物工程2019-1-2</t>
+          <t>金属热处理工艺学孙金全 (1-7周) 金属材料工程2019-1-2</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr"/>
@@ -6154,34 +6518,34 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>J14-442室</t>
+          <t>J14-503室</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>化工原理（B）马艺心 (1-11周) 高分子材料与工程2019-3</t>
+          <t>采购管理程兴群 (1-9周) 物流管理2019-2</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>摩擦与磨损孙金全 (1-5周) 金属材料工程2018-1-3</t>
+          <t>电子商务系统安全康宏 (1-9周) 电子商务2019-2</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>无损检测李桂杰 (1-6,8-9周) 金属材料工程2018-1-3</t>
+          <t>电子商务系统安全康宏 (1-8周) 电子商务2019-1</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>金属固态相变原理曹梅青 (1-6,8-9周) 金属材料工程2019-4</t>
+          <t>数据挖掘张福平 (1-9周) 电子商务2019-1</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>化工原理（B）刘珊珊 (1-11周) 高分子材料与工程2019-4</t>
+          <t>采购管理程兴群 (1-9周) 物流管理2019-1</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -6189,41 +6553,49 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>化工原理（B）马艺心 (1-11周) 高分子材料与工程2019-3</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr"/>
+          <t>采购管理程兴群 (1-9周) 物流管理2019-2</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>电子商务系统安全康宏 (1-9周) 电子商务2019-2</t>
+        </is>
+      </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>有机波谱分析汪静 (1-8周) 材料化学2019-1-2</t>
+          <t>电子商务系统安全康宏 (1-8周) 电子商务2019-1</t>
         </is>
       </c>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>数据挖掘张福平 (1-9周) 电子商务2019-1</t>
+        </is>
+      </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>摩擦与磨损孙金全 (1-5周) 金属材料工程2018-1-3</t>
+          <t>采购管理程兴群 (1-9周) 物流管理2019-1</t>
         </is>
       </c>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr">
-        <is>
-          <t>化工原理（B）刘珊珊 (1-11周) 高分子材料与工程2019-4</t>
-        </is>
-      </c>
+      <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr">
-        <is>
-          <t>有机波谱分析汪静 (1-8周) 材料化学2019-1-2</t>
-        </is>
-      </c>
+      <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr"/>
-      <c r="AB75" t="inlineStr"/>
-      <c r="AC75" t="inlineStr"/>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>市场营销学（A）高军红 (1-12周) 工商管理(辅修)2020</t>
+        </is>
+      </c>
+      <c r="AC75" t="inlineStr">
+        <is>
+          <t>市场营销学（A）高军红 (1-12周) 工商管理(辅修)2020</t>
+        </is>
+      </c>
       <c r="AD75" t="inlineStr"/>
       <c r="AE75" t="inlineStr"/>
       <c r="AF75" t="inlineStr"/>
@@ -6242,9 +6614,21 @@
           <t>J14-504室</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>用户体验设计修朴华 (1-6周) 工业设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>用户体验设计修朴华 (1-6周) 工业设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>用户体验设计修朴华 (1-5周) 工业设计2019-1-2</t>
+        </is>
+      </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
@@ -6252,29 +6636,21 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>产品语义学李雪瑞 (1-5周) 工业设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>产品语义学李雪瑞 (1-5周) 工业设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>产品语义学李雪瑞 (1-5周) 工业设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>产品语义学李雪瑞 (1-5周) 工业设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>产品造型材料与工艺张琳 (1-5周) 工业设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>产品造型材料与工艺张琳 (1-4周) 工业设计2019-1-2</t>
+        </is>
+      </c>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
@@ -6300,44 +6676,32 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>J14-508室</t>
+          <t>J14-505室</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-2)谭瑾 (1-16周) 矿物加工工程2021-3</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>机械装备设计张琳 (1-3,5周) 工业设计2018-1-2</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>机械装备设计张琳 (1-3,5周) 工业设计2018-1-2</t>
-        </is>
-      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>机械装备设计张琳 (1-3,5周) 工业设计2018-1-2</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>机械装备设计张琳 (1-3,5周) 工业设计2018-1-2</t>
-        </is>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>机械装备设计张琳 (1-3,5周) 工业设计2018-1-2</t>
-        </is>
-      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-2)迟雯雯 (1-16周) 能源与动力工程2021-1</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
@@ -6365,29 +6729,37 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>J14-510室</t>
+          <t>J14-507室</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>交通运输设备谢凤芹 (1-7周) 交通运输2020-3</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>机械设计基础谢凤芹 (1-12周) 交通运输2020-3</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>汽车理论李玉善 (1-10周) 车辆工程2019-1</t>
+        </is>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>设计专业论文写作刘燕 (1-5周) 环境设计2018-1-2</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>设计专业论文写作刘燕 (1-5周) 环境设计2018-1-2</t>
-        </is>
-      </c>
+          <t>交通运输设备谢凤芹 (1-8周) 交通运输2020-3</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
@@ -6397,7 +6769,11 @@
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr"/>
       <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>机械设计基础谢凤芹 (1-12周) 交通运输2020-3</t>
+        </is>
+      </c>
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="inlineStr"/>
@@ -6418,81 +6794,41 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>J14-512室</t>
+          <t>J14-513室</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>景观设计原理仇同文 (1-6周) 环境设计2020-1</t>
-        </is>
-      </c>
+      <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>色彩风景乔磊 (1-4周) 环境设计2020-1</t>
-        </is>
-      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>色彩风景乔磊 (1-4周) 环境设计2020-1</t>
+          <t>材料力学李玉蓉 (1-6,9-10周) 机械电子工程(留学生)2020</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>景观设计原理仇同文 (1-6周) 环境设计2020-1</t>
-        </is>
-      </c>
+      <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>色彩风景乔磊 (1-4周) 环境设计2020-2</t>
-        </is>
-      </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>色彩风景乔磊 (1-4周) 环境设计2020-2</t>
-        </is>
-      </c>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>色彩风景乔磊 (1周) 环境设计2020-2</t>
-        </is>
-      </c>
+      <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr">
         <is>
-          <t>色彩风景乔磊 (1周) 环境设计2020-2</t>
+          <t>材料力学李玉蓉 (1-6,9-10周) 机械电子工程(留学生)2020</t>
         </is>
       </c>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr">
-        <is>
-          <t>景观设计原理刘燕 (1-6周) 环境设计2020-2</t>
-        </is>
-      </c>
-      <c r="X79" t="inlineStr">
-        <is>
-          <t>景观设计原理刘燕 (1-6周) 环境设计2020-2</t>
-        </is>
-      </c>
-      <c r="Y79" t="inlineStr">
-        <is>
-          <t>色彩风景乔磊 (1-4周) 环境设计2020-1</t>
-        </is>
-      </c>
-      <c r="Z79" t="inlineStr">
-        <is>
-          <t>色彩风景乔磊 (1-4周) 环境设计2020-1</t>
-        </is>
-      </c>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="inlineStr"/>
       <c r="AB79" t="inlineStr"/>
       <c r="AC79" t="inlineStr"/>
@@ -6511,30 +6847,38 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>J14-514室</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
+          <t>J14-512室</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>设计表现技法李强 (1-4周) 环境设计2020-1</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>空间设计思维创意与表现李王婷 (1-4周) 环境设计2019-1</t>
+          <t>设计表现技法李强 (1-4周) 环境设计2020-1</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>空间设计思维创意与表现李王婷 (1-4周) 环境设计2019-1</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr"/>
+          <t>设计表现技法胡永胜 (1-4周) 环境设计2020-2</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>设计表现技法胡永胜 (1-4周) 环境设计2020-2</t>
+        </is>
+      </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>空间设计思维创意与表现许士朋 (1-4周) 环境设计2019-2</t>
+          <t>设计表现技法胡永胜 (1-4周) 环境设计2020-2</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>空间设计思维创意与表现许士朋 (1-4周) 环境设计2019-2</t>
+          <t>设计表现技法胡永胜 (1-4周) 环境设计2020-2</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -6542,57 +6886,41 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>空间设计思维创意与表现许士朋 (1-4周) 环境设计2019-2</t>
+          <t>设计表现技法李强 (1-4周) 环境设计2020-1</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>空间设计思维创意与表现许士朋 (1-4周) 环境设计2019-2</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>空间设计思维创意与表现李王婷 (1-4周) 环境设计2019-1</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>空间设计思维创意与表现李王婷 (1-4周) 环境设计2019-1</t>
-        </is>
-      </c>
+          <t>设计表现技法李强 (1-4周) 环境设计2020-1</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr">
         <is>
-          <t>空间设计思维创意与表现李王婷 (1-4周) 环境设计2019-1</t>
+          <t>设计表现技法胡永胜 (1-4周) 环境设计2020-2</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>空间设计思维创意与表现李王婷 (1-4周) 环境设计2019-1</t>
-        </is>
-      </c>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>空间设计思维创意与表现李王婷 (1-3周) 环境设计2019-1</t>
-        </is>
-      </c>
+          <t>设计表现技法胡永胜 (1-4周) 环境设计2020-2</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr">
         <is>
-          <t>空间设计思维创意与表现许士朋 (1-4周) 环境设计2019-2</t>
+          <t>设计表现技法李强 (1-4周) 环境设计2020-1</t>
         </is>
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>空间设计思维创意与表现许士朋 (1-4周) 环境设计2019-2</t>
-        </is>
-      </c>
-      <c r="Y80" t="inlineStr">
-        <is>
-          <t>空间设计思维创意与表现许士朋 (1-3周) 环境设计2019-2</t>
-        </is>
-      </c>
+          <t>设计表现技法李强 (1-4周) 环境设计2020-1</t>
+        </is>
+      </c>
+      <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="inlineStr"/>
       <c r="AB80" t="inlineStr"/>
@@ -6612,49 +6940,81 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>J14-524室</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
+          <t>J14-514室</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>公共艺术甄珍 (1-5周) 环境设计2019-2</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>公共艺术甄珍 (1-5周) 环境设计2019-2</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>公共艺术呙鹏 (1-5周) 环境设计2019-1</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>公共艺术呙鹏 (1-5周) 环境设计2019-1</t>
+        </is>
+      </c>
       <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>公共艺术呙鹏 (1-5周) 环境设计2019-1</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>公共艺术呙鹏 (1-4周) 环境设计2019-1</t>
+        </is>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>构成设计Ⅱ宋美音 (1-3周) 视觉传达设计2020-1-2</t>
+          <t>公共艺术甄珍 (1-5周) 环境设计2019-2</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>构成设计Ⅱ宋美音 (1-3周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>构成设计Ⅱ宋美音 (1-3周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
+          <t>公共艺术甄珍 (1-4周) 环境设计2019-2</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>公共艺术呙鹏 (1-4周) 环境设计2019-1</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>公共艺术呙鹏 (1-4周) 环境设计2019-1</t>
+        </is>
+      </c>
       <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>中外建筑史孙照栋 (1-18周) 环境设计2019-1-2</t>
+        </is>
+      </c>
       <c r="V81" t="inlineStr"/>
       <c r="W81" t="inlineStr">
         <is>
-          <t>构成设计Ⅱ宋美音 (1-3周) 视觉传达设计2020-1-2</t>
+          <t>公共艺术甄珍 (1-4周) 环境设计2019-2</t>
         </is>
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>构成设计Ⅱ宋美音 (1-3周) 视觉传达设计2020-1-2</t>
+          <t>公共艺术甄珍 (1-4周) 环境设计2019-2</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr"/>
@@ -6677,55 +7037,47 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>J14-526室</t>
+          <t>J14-516室</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>风景速写孙彤彤 (1-5周) 环境设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>风景速写孙彤彤 (1-5周) 环境设计2021-1-2</t>
+        </is>
+      </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>标志设计刘佳 (1-3周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>标志设计刘佳 (1-3周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>标志设计刘佳 (1-3周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>标志设计刘佳 (1-3周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>风景速写孙彤彤 (1-3周) 环境设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>风景速写孙彤彤 (1-3周) 环境设计2021-1-2</t>
+        </is>
+      </c>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr">
-        <is>
-          <t>标志设计刘佳 (1-3周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="X82" t="inlineStr">
-        <is>
-          <t>标志设计刘佳 (1-3周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr"/>
@@ -6746,40 +7098,72 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>J14-528室</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>工艺美术史包春燕 (1-8周) 产品设计2020-1-2</t>
-        </is>
-      </c>
+          <t>J14-531室</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>工艺美术史包春燕 (1-8周) 产品设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
+          <t>中国近现代史纲要姜瑞学 (1-12周) 测绘工程2021-1-4</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>思想道德与法治郗凤芹 (1-12周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要邱楚珈 (1-12周) 安全工程2021-1-5</t>
+        </is>
+      </c>
       <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要王兆立 (1-12周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>马克思主义基本原理刘丽威 (1-12周) 生物工程2020-1-2班,矿物加工工程2020-1-3</t>
+        </is>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要王若菡 (1-12周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
+        </is>
+      </c>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要王兆立 (1-12周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+        </is>
+      </c>
       <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要姜瑞学 (1-12周) 测绘工程2021-1-4</t>
+        </is>
+      </c>
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>马克思主义基本原理刘丽威 (1-12周) 生物工程2020-1-2班,矿物加工工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>思想道德与法治郗凤芹 (1-12周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
+        </is>
+      </c>
       <c r="Z83" t="inlineStr"/>
       <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="inlineStr"/>
@@ -6799,13 +7183,29 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>J14-540室</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
+          <t>J14-520室</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>色彩岳文婧 (1-5周) 视觉传达设计2021-2 色彩姜涛 (1-5周) 视觉传达设计2021-1</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>色彩岳文婧 (1-5周) 视觉传达设计2021-2 色彩姜涛 (1-5周) 视觉传达设计2021-1</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>色彩岳文婧 (1-5周) 视觉传达设计2021-2 色彩姜涛 (1-5周) 视觉传达设计2021-1</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>色彩岳文婧 (1-5周) 视觉传达设计2021-2 色彩姜涛 (1-5周) 视觉传达设计2021-1</t>
+        </is>
+      </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
@@ -6814,34 +7214,22 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>色彩岳文婧 (1-5周) 视觉传达设计2021-2 色彩姜涛 (1-5周) 视觉传达设计2021-1</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>色彩岳文婧 (1-5周) 视觉传达设计2021-2 色彩姜涛 (1-5周) 视觉传达设计2021-1</t>
+        </is>
+      </c>
       <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>产品语义学李雪瑞 (1-5周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>产品语义学李雪瑞 (1-5周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>产品语义学李雪瑞 (1-5周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>产品语义学李雪瑞 (1-5周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="V84" t="inlineStr">
-        <is>
-          <t>产品语义学李雪瑞 (1-5周) 产品设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
       <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr"/>
@@ -6864,43 +7252,51 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>J14-525室</t>
+          <t>J14-533室</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
+          <t>中国近现代史纲要冯秀芹 (1-12周) 机械电子工程2021-5-6班,机械设计制造及其自动化2021-5-6</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>思想政治理论课综合实践张蕾 (1-2,15-16周) 物流管理2020-1-2班,国际经济与贸易2020-1-2</t>
+        </is>
+      </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要孙冬青 (1-12周) 工商管理(体育)2021班,金融学2021-1-2班,工商管理2021-1-2</t>
+        </is>
+      </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>理论力学（A）陈俊国 (1-4,6-17周) 采矿工程（宋振骐班）</t>
+          <t>毛泽东思想和中国特色社会主义理论体系概论王忠春 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>大学物理（B）（2-2）张艳亮 (1-4,6-13周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
+      <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要薛锋 (1-12周) 地质工程2021-1-3班,勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>理论力学（A）陈俊国 (1-4,6-17周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="T85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要冯秀芹 (1-12周) 机械电子工程2021-5-6班,机械设计制造及其自动化2021-5-6</t>
+        </is>
+      </c>
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
       <c r="W85" t="inlineStr"/>
@@ -6925,40 +7321,60 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>J14-332室</t>
+          <t>J14-535室</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>采矿学李占海 (1-11周) 采矿工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>思想道德与法治金淑敏 (1-12周) 应用化学2021-1-2班,生物工程2021-1-2</t>
+        </is>
+      </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>空间大地测量学基础孔巧丽 (1-9周) 测绘工程2019-1-2</t>
+        </is>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>采矿学李占海 (1-11周) 采矿工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>海图制图王瑞富 (1-10周) 测绘工程2020-1-5</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>社会主义发展史李四光 (1-8周) 环境工程2021-1-4</t>
+        </is>
+      </c>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr"/>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>空间大地测量学基础孔巧丽 (1-9周) 测绘工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要邱楚珈 (1-12周) 安全工程2021-1-5</t>
+        </is>
+      </c>
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>社会主义发展史李四光 (1-8周) 环境工程2021-1-4</t>
+        </is>
+      </c>
       <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="inlineStr"/>
@@ -6972,6 +7388,790 @@
       <c r="AJ86" t="inlineStr"/>
       <c r="AK86" t="inlineStr"/>
     </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>J14-524室</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>图形创意孙德波 (1-6周) 视觉传达设计2020-2 图形创意刘佳 (1-6周) 视觉传达设计2020-1</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>图形创意孙德波 (1-6周) 视觉传达设计2020-2 图形创意刘佳 (1-6周) 视觉传达设计2020-1</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>图形创意孙德波 (1-6周) 视觉传达设计2020-2 图形创意刘佳 (1-6周) 视觉传达设计2020-1</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>图形创意孙德波 (1-6周) 视觉传达设计2020-2 图形创意刘佳 (1-6周) 视觉传达设计2020-1</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>图形创意孙德波 (1-6周) 视觉传达设计2020-2 图形创意刘佳 (1-6周) 视觉传达设计2020-1</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>图形创意孙德波 (1-5周) 视觉传达设计2020-2 图形创意刘佳 (1-5周) 视觉传达设计2020-1</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>图形创意孙德波 (1-5周) 视觉传达设计2020-2 图形创意刘佳 (1-5周) 视觉传达设计2020-1</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr"/>
+      <c r="AB87" t="inlineStr"/>
+      <c r="AC87" t="inlineStr"/>
+      <c r="AD87" t="inlineStr"/>
+      <c r="AE87" t="inlineStr"/>
+      <c r="AF87" t="inlineStr"/>
+      <c r="AG87" t="inlineStr"/>
+      <c r="AH87" t="inlineStr"/>
+      <c r="AI87" t="inlineStr"/>
+      <c r="AJ87" t="inlineStr"/>
+      <c r="AK87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>J14-526室</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>招贴设计王海涛 (1-3周) 视觉传达设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>招贴设计王海涛 (1-3周) 视觉传达设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>招贴设计王海涛 (1-3周) 视觉传达设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>招贴设计王海涛 (1-3周) 视觉传达设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>招贴设计王海涛 (1-3周) 视觉传达设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="Z88" t="inlineStr">
+        <is>
+          <t>招贴设计王海涛 (1-3周) 视觉传达设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="AA88" t="inlineStr"/>
+      <c r="AB88" t="inlineStr"/>
+      <c r="AC88" t="inlineStr"/>
+      <c r="AD88" t="inlineStr"/>
+      <c r="AE88" t="inlineStr"/>
+      <c r="AF88" t="inlineStr"/>
+      <c r="AG88" t="inlineStr"/>
+      <c r="AH88" t="inlineStr"/>
+      <c r="AI88" t="inlineStr"/>
+      <c r="AJ88" t="inlineStr"/>
+      <c r="AK88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>J14-528室</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>造型材料与色彩工 艺（CMF）张琳 (1-8周) 产品设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>造型材料与色彩工 艺（CMF）张琳 (1-8周) 产品设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
+      <c r="AB89" t="inlineStr"/>
+      <c r="AC89" t="inlineStr"/>
+      <c r="AD89" t="inlineStr"/>
+      <c r="AE89" t="inlineStr"/>
+      <c r="AF89" t="inlineStr"/>
+      <c r="AG89" t="inlineStr"/>
+      <c r="AH89" t="inlineStr"/>
+      <c r="AI89" t="inlineStr"/>
+      <c r="AJ89" t="inlineStr"/>
+      <c r="AK89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>J14-540室</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>模型设计与制作呙智强 (1-6周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>模型设计与制作呙智强 (1-6周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>模型设计与制作呙智强 (1-6周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>模型设计与制作呙智强 (1-6周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>模型设计与制作呙智强 (1-6周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>文化旅游产品设计修朴华 (1-4,7-8周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>文化旅游产品设计修朴华 (1-4,7-8周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>文化旅游产品设计修朴华 (1-4,7-8周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>文化旅游产品设计修朴华 (1-4,7-8周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>文化旅游产品设计修朴华 (1-4,7-8周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
+      <c r="AB90" t="inlineStr"/>
+      <c r="AC90" t="inlineStr"/>
+      <c r="AD90" t="inlineStr"/>
+      <c r="AE90" t="inlineStr"/>
+      <c r="AF90" t="inlineStr"/>
+      <c r="AG90" t="inlineStr"/>
+      <c r="AH90" t="inlineStr"/>
+      <c r="AI90" t="inlineStr"/>
+      <c r="AJ90" t="inlineStr"/>
+      <c r="AK90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>J14-542室</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>设计素描包春燕 (1-5周) 产品设计2021-2</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>设计素描包春燕 (1-5周) 产品设计2021-2</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>设计素描包春燕 (1-5周) 产品设计2021-2</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>设计素描包春燕 (1-5周) 产品设计2021-2</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>设计素描包春燕 (1-5周) 产品设计2021-1</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>设计素描包春燕 (1-5周) 产品设计2021-1</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>设计素描包春燕 (1-5周) 产品设计2021-1</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>设计素描包春燕 (1-5周) 产品设计2021-1</t>
+        </is>
+      </c>
+      <c r="Z91" t="inlineStr"/>
+      <c r="AA91" t="inlineStr"/>
+      <c r="AB91" t="inlineStr"/>
+      <c r="AC91" t="inlineStr"/>
+      <c r="AD91" t="inlineStr"/>
+      <c r="AE91" t="inlineStr"/>
+      <c r="AF91" t="inlineStr"/>
+      <c r="AG91" t="inlineStr"/>
+      <c r="AH91" t="inlineStr"/>
+      <c r="AI91" t="inlineStr"/>
+      <c r="AJ91" t="inlineStr"/>
+      <c r="AK91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>J14-525室</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>材料力学（A）赵增辉 (1-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>马克思主义基本原理高明 (1-12周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>电工电子技术（B）郭梅 (1-7,9-10周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>材料力学（A）赵增辉 (1-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>电工电子技术（B）郭梅 (1-7,9-10周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>马克思主义基本原理高明 (1-12周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="Z92" t="inlineStr"/>
+      <c r="AA92" t="inlineStr"/>
+      <c r="AB92" t="inlineStr"/>
+      <c r="AC92" t="inlineStr"/>
+      <c r="AD92" t="inlineStr"/>
+      <c r="AE92" t="inlineStr"/>
+      <c r="AF92" t="inlineStr"/>
+      <c r="AG92" t="inlineStr"/>
+      <c r="AH92" t="inlineStr"/>
+      <c r="AI92" t="inlineStr"/>
+      <c r="AJ92" t="inlineStr"/>
+      <c r="AK92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>J14-511室</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>GNSS测量与数据处理刘智敏 (1-9周) 遥感科学与技术2019-1</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>GNSS测量与数据处理刘智敏 (1-9周) 遥感科学与技术2019-1</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>大地测量学基础郭金运 (1-10周) 测绘工程2020-3</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>工程测量学常乐 (1-12周) 测绘工程2019-2</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr"/>
+      <c r="AA93" t="inlineStr"/>
+      <c r="AB93" t="inlineStr"/>
+      <c r="AC93" t="inlineStr"/>
+      <c r="AD93" t="inlineStr"/>
+      <c r="AE93" t="inlineStr"/>
+      <c r="AF93" t="inlineStr"/>
+      <c r="AG93" t="inlineStr"/>
+      <c r="AH93" t="inlineStr"/>
+      <c r="AI93" t="inlineStr"/>
+      <c r="AJ93" t="inlineStr"/>
+      <c r="AK93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>J14-521室</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要王兆立 (1-12周) 采矿工程（宋振骐班）2021</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>大学物理（B）（2-1）张艳亮 (1-12周) 采矿工程（宋振骐班）2021</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-2)申佃美 (1-16周) 采矿工程（宋振骐班）2021</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要王兆立 (1-12周) 采矿工程（宋振骐班）2021</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-2)申佃美 (1-16周) 采矿工程（宋振骐班）2021</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>大学物理（B）（2-1）张艳亮 (1-12周) 采矿工程（宋振骐班）2021</t>
+        </is>
+      </c>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
+      <c r="AA94" t="inlineStr"/>
+      <c r="AB94" t="inlineStr"/>
+      <c r="AC94" t="inlineStr"/>
+      <c r="AD94" t="inlineStr"/>
+      <c r="AE94" t="inlineStr"/>
+      <c r="AF94" t="inlineStr"/>
+      <c r="AG94" t="inlineStr"/>
+      <c r="AH94" t="inlineStr"/>
+      <c r="AI94" t="inlineStr"/>
+      <c r="AJ94" t="inlineStr"/>
+      <c r="AK94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>J14-509室</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>机械设计基础薛风先 (1-12周) 交通运输2020-4</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>工程测量学常乐 (1-12周) 测绘工程2019-2</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>机械设计基础薛风先 (1-12周) 交通运输2020-4</t>
+        </is>
+      </c>
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr"/>
+      <c r="AA95" t="inlineStr"/>
+      <c r="AB95" t="inlineStr"/>
+      <c r="AC95" t="inlineStr"/>
+      <c r="AD95" t="inlineStr"/>
+      <c r="AE95" t="inlineStr"/>
+      <c r="AF95" t="inlineStr"/>
+      <c r="AG95" t="inlineStr"/>
+      <c r="AH95" t="inlineStr"/>
+      <c r="AI95" t="inlineStr"/>
+      <c r="AJ95" t="inlineStr"/>
+      <c r="AK95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>J14-332室</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>矿山压力与岩层控制文志杰 (1-5周) 采矿工程2019-3</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>弹性力学基础吕显州 (1-8周) 地质工程2020-3</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>矿山压力与岩层控制文志杰 (1-5周) 采矿工程2019-3</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="inlineStr"/>
+      <c r="AA96" t="inlineStr"/>
+      <c r="AB96" t="inlineStr"/>
+      <c r="AC96" t="inlineStr"/>
+      <c r="AD96" t="inlineStr"/>
+      <c r="AE96" t="inlineStr"/>
+      <c r="AF96" t="inlineStr"/>
+      <c r="AG96" t="inlineStr"/>
+      <c r="AH96" t="inlineStr"/>
+      <c r="AI96" t="inlineStr"/>
+      <c r="AJ96" t="inlineStr"/>
+      <c r="AK96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>J14-519室</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>生化分离工程(双语)李桂江 (1-10周) 生物工程2019-2</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>发酵工程孟龙 (1-10周) 生物工程2019-1</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>发酵工程纪蓓 (1-10周) 生物工程2019-2</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>生化分离工程(双语)李桂江 (1-10周) 生物工程2019-2</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>发酵工程纪蓓 (1-10周) 生物工程2019-2</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr"/>
+      <c r="AA97" t="inlineStr"/>
+      <c r="AB97" t="inlineStr"/>
+      <c r="AC97" t="inlineStr"/>
+      <c r="AD97" t="inlineStr"/>
+      <c r="AE97" t="inlineStr"/>
+      <c r="AF97" t="inlineStr"/>
+      <c r="AG97" t="inlineStr"/>
+      <c r="AH97" t="inlineStr"/>
+      <c r="AI97" t="inlineStr"/>
+      <c r="AJ97" t="inlineStr"/>
+      <c r="AK97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>J14-515室</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>工程测量学于胜文 (1-12周) 测绘工程2019-1</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr"/>
+      <c r="Z98" t="inlineStr"/>
+      <c r="AA98" t="inlineStr"/>
+      <c r="AB98" t="inlineStr"/>
+      <c r="AC98" t="inlineStr"/>
+      <c r="AD98" t="inlineStr"/>
+      <c r="AE98" t="inlineStr"/>
+      <c r="AF98" t="inlineStr"/>
+      <c r="AG98" t="inlineStr"/>
+      <c r="AH98" t="inlineStr"/>
+      <c r="AI98" t="inlineStr"/>
+      <c r="AJ98" t="inlineStr"/>
+      <c r="AK98" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1.xlsx
+++ b/excel/1.xlsx
@@ -812,7 +812,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>电子商务专业英语文献阅读孙丽华 (1-9周) 电子商务2019-2</t>
+          <t>电子商务专业英语文献阅读孙丽华 (1,3-9周) 电子商务2019-2</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -954,7 +954,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>市场调查与预测宋平 (1-9周) 工商管理(社会体育指导与管理)2019</t>
+          <t>市场调查与预测宋平 (1,3-9周) 工商管理(社会体育指导与管理)2019</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1071,7 +1071,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>材料腐蚀与防护岳丽杰 (1-9周) 金属材料工程2019-1-2</t>
+          <t>材料腐蚀与防护岳丽杰 (1,3-9周) 金属材料工程2019-1-2</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1110,7 +1110,7 @@
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr">
         <is>
-          <t>海图制图王瑞富 (1-10周) 测绘工程2020-1-5</t>
+          <t>海图制图王瑞富 (1-7周) 测绘工程2020-1-5</t>
         </is>
       </c>
       <c r="X6" t="inlineStr"/>
@@ -1128,24 +1128,16 @@
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>中级财务会计（I）郝敏,吴文文 (1-12周) 会计学(辅修)2020</t>
+          <t>中级财务会计（I）郝敏,吴文文 (1,3-12周) 会计学(辅修)2020</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>中级财务会计（I）郝敏,吴文文 (1-12周) 会计学(辅修)2020</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>应用统计学王家坤 (1-11周) 会计学(辅修)2020</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>应用统计学王家坤 (1-11周) 会计学(辅修)2020</t>
-        </is>
-      </c>
+          <t>中级财务会计（I）郝敏,吴文文 (1,3-12周) 会计学(辅修)2020</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -1165,14 +1157,14 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>矿井设计秦忠诚 (1-5周) 采矿工程2019-3-4</t>
+          <t>矿井设计秦忠诚 (1-4周) 采矿工程2019-3-4</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>人力资源管理袁清和 (1-8周) 工业工程2020-1-2</t>
+          <t>人力资源管理袁清和 (1,3-8周) 工业工程2020-1-2</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1202,7 +1194,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>矿井设计秦忠诚 (1-5周) 采矿工程2019-3-4</t>
+          <t>矿井设计秦忠诚 (1-3周) 采矿工程2019-3-4</t>
         </is>
       </c>
       <c r="S7" t="inlineStr"/>
@@ -1211,7 +1203,7 @@
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr">
         <is>
-          <t>采煤工艺学栾恒杰 (1-4周) 采矿工程2019-3-4</t>
+          <t>采煤工艺学栾恒杰 (1,3-4周) 采矿工程2019-3-4</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -1257,7 +1249,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>会计信息系统（A）崔树德 (1-14周) 会计学2019-1-2</t>
+          <t>会计信息系统（A）崔树德 (1,3-14周) 会计学2019-1-2</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1323,19 +1315,19 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>EXCEL财务应用赵桐 (1-12周) 会计学(辅修)2019</t>
+          <t>EXCEL财务应用赵桐 (1-3,5-12周) 会计学(辅修)2019</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>审计学刘英姿 (1-12周) 会计学(辅修)2019</t>
+          <t>审计学刘英姿 (1,3-12周) 会计学(辅修)2019</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>审计学刘英姿 (1-12周) 会计学(辅修)2019</t>
+          <t>审计学刘英姿 (1,3-12周) 会计学(辅修)2019</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1432,7 +1424,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>工程测量学刘尚国 (1-12周) 测绘工程2019-3</t>
+          <t>工程测量学刘尚国 (1,3-6,8-12周) 测绘工程2019-3</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -1508,7 +1500,11 @@
           <t>结晶学与矿物学杜龙,毛光周 (1-4周) 资源勘查工程2021-1-2</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>社会主义发展史曹丙燕 (1-8周) 智能制造工程2021-1-2班,能源与动力工程2021-1-3</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
@@ -1531,11 +1527,15 @@
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>社会主义发展史曹丙燕 (1-8周) 智能制造工程2021-1-2班,能源与动力工程2021-1-3</t>
+        </is>
+      </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr">
         <is>
-          <t>结晶学与矿物学杜龙,毛光周 (1-2周) 资源勘查工程2021-1-2</t>
+          <t>结晶学与矿物学杜龙,毛光周 (1周) 资源勘查工程2021-1-2</t>
         </is>
       </c>
       <c r="X11" t="inlineStr"/>
@@ -1581,7 +1581,7 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>环境影响评价曹晓强 (1-6周) 环境工程2019-1-2</t>
+          <t>环境影响评价曹晓强 (1-4,6周) 环境工程2019-1-2</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1821,12 +1821,12 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-2）宋治涛 (1-14周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+          <t>Python 程序设计刘洪强 (1-9周) 地理信息科学2019-1-3</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-2）宋治涛 (1-14周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+          <t>误差理论与测量平差基础刘国林 (1-8周) 遥感科学与技术2020-3</t>
         </is>
       </c>
       <c r="T14" t="inlineStr"/>
@@ -2034,18 +2034,10 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>电子技术常龙,王云霞 (1-6,9-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>计算机数控系统武洪恩 (1-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
@@ -2060,16 +2052,8 @@
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>计算机数控系统武洪恩 (1-13周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>电子技术常龙,王云霞 (1-6,9-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
@@ -2122,7 +2106,7 @@
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr">
         <is>
-          <t>工程测量学刘尚国 (1-12周) 测绘工程2019-3</t>
+          <t>工程测量学刘尚国 (1-6,8-12周) 测绘工程2019-3</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
@@ -2194,12 +2178,12 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Python 程序设计刘洪强 (1-9周) 地理信息科学2019-1-3</t>
+          <t>高等数学（A）（2-2）宋治涛 (1-14周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>误差理论与测量平差基础刘国林 (1-8周) 遥感科学与技术2020-3</t>
+          <t>高等数学（A）（2-2）宋治涛 (1-8周) 工程力学2021-1-2班,工业工程2021-1-2</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
@@ -2212,7 +2196,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>土地管理与信息系统李云岭 (1-9周) 地理信息科学2019-1-3</t>
+          <t>土地管理与信息系统李云岭 (1,3-9周) 地理信息科学2019-1-3</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr"/>
@@ -2298,7 +2282,7 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>材料力学（B）赵增辉 (1-11周) 采矿工程2020-1-2</t>
+          <t>材料力学（B）赵增辉 (1,3-11周) 采矿工程2020-1-2</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2383,7 +2367,7 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>仪器分析肖新峰 (1-4周) 环境工程2020-1-2</t>
+          <t>仪器分析肖新峰 (1,3-4周) 环境工程2020-1-2</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2472,7 +2456,7 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>采煤工艺学栾恒杰 (1-4周) 采矿工程2019-3-4</t>
+          <t>采煤工艺学栾恒杰 (1,3-4周) 采矿工程2019-3-4</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2516,7 +2500,7 @@
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr">
         <is>
-          <t>可编程控制器姜雪,王德堂 (1-8周) 机械电子工程2019-1-3</t>
+          <t>可编程控制器姜雪,王德堂 (1,3-8周) 机械电子工程2019-1-3</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr"/>
@@ -2593,7 +2577,7 @@
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr">
         <is>
-          <t>应用统计学（C）张杰 (1-7周) 物流管理2019-1-2</t>
+          <t>应用统计学（C）张杰 (1,3-7周) 物流管理2019-1-2</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -2686,7 +2670,7 @@
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr">
         <is>
-          <t>金属材料工程专业英语朱慧灵 (1-8周) 金属材料工程2019-4-5</t>
+          <t>金属材料工程专业英语朱慧灵 (1,3-8周) 金属材料工程2019-4-5</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr"/>
@@ -2755,7 +2739,7 @@
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr">
         <is>
-          <t>机械设计基础（A）张悦刊 (1-3周) 金属材料工程2020-1-2</t>
+          <t>机械设计基础（A）张悦刊 (1,3周) 金属材料工程2020-1-2</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -2801,7 +2785,7 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>液压传动与控制杨扬 (1-9周) 机械电子工程2019-5</t>
+          <t>液压传动与控制杨扬 (1,3-9周) 机械电子工程2019-5</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -2818,7 +2802,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>金融专业英语闻德美 (1-9周) 金融学2019-1-2</t>
+          <t>金融专业英语闻德美 (1,3-9周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -2847,12 +2831,12 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>电子技术仉毅 (1-6,10-13周) 机械电子工程2020-5-6</t>
+          <t>电子技术仉毅 (1,3-6,10-13周) 机械电子工程2020-5-6</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>计算方法江守波 (1-6周) 机械电子工程2020-1-2</t>
+          <t>计算方法江守波 (1,3-6周) 机械电子工程2020-1-2</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -2897,7 +2881,7 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>化工分离工程高军 (1-9周) 化学工程与工艺2019-1-3</t>
+          <t>化工分离工程高军 (1,3-9周) 化学工程与工艺2019-1-3</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2915,7 +2899,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>应急与危机心理干预于海明 (1-8周) 安全工程（应急管理方向）2019</t>
+          <t>应急与危机心理干预于海明 (1-2周) 安全工程（应急管理方向）2019</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2944,7 +2928,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>分析化学陈伟 (1-8周) 应用化学2021-2</t>
+          <t>分析化学陈伟 (1,3-8周) 应用化学2021-2</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
@@ -3033,7 +3017,7 @@
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr">
         <is>
-          <t>应急与危机心理干预于海明 (1-8周) 安全工程（应急管理方向）2019</t>
+          <t>应急与危机心理干预于海明 (1-2周) 安全工程（应急管理方向）2019</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
@@ -3076,11 +3060,7 @@
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -3098,11 +3078,7 @@
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
           <t>数字摄影测量原理与方法解斐斐 (1-12周) 遥感科学与技术2019-2-3</t>
@@ -3120,11 +3096,7 @@
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
@@ -3160,7 +3132,7 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>计量经济学（A）陶敏 (1-11周) 国际经济与贸易2019-1-2</t>
+          <t>计量经济学（A）陶敏 (1,3-11周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3187,12 +3159,12 @@
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr">
         <is>
-          <t>银行结算*邢苗 (1-9周) 投资学2019-1-2</t>
+          <t>银行结算*邢苗 (1,3-9周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>绿色物流杨珍花 (1-8周) 物流管理2020-1-2</t>
+          <t>绿色物流杨珍花 (1,3-8周) 物流管理2020-1-2</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr"/>
@@ -3226,11 +3198,7 @@
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>机械原理魏军英 (1,3,5,9,11,13,15单周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
           <t>矿井通风与安全鹿广利 (1-7,9-10周) 采矿工程（智能开采方向）2019-1-2</t>
@@ -3254,17 +3222,9 @@
           <t>材料分析测试技术汪静 (1-12周) 材料化学2019-1</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>机械CAD丁淑辉 (1-12周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>机械原理魏军英 (1,3,5,9,11,13,15单周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr">
         <is>
@@ -3276,19 +3236,15 @@
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr">
         <is>
-          <t>电子技术吴清收 (1-6,10-13周) 机械电子工程2020-3-4</t>
+          <t>电子技术吴清收 (1,3-6,10-13周) 机械电子工程2020-3-4</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>材料分析测试技术汪静 (1-12周) 材料化学2019-1</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>机械CAD丁淑辉 (1-12周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+          <t>材料分析测试技术汪静 (1,3-12周) 材料化学2019-1</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
@@ -3479,7 +3435,7 @@
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr">
         <is>
-          <t>古生物学李守军 (1-8周) 资源勘查工程2020-1-3</t>
+          <t>古生物学李守军 (1,3-8周) 资源勘查工程2020-1-3</t>
         </is>
       </c>
       <c r="X35" t="inlineStr"/>
@@ -3629,11 +3585,7 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>古生物学王平丽 (1-8周) 资源勘查工程2020-1-3</t>
-        </is>
-      </c>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
           <t>运营管理(A)庄晓雯 (1-14周) 工商管理2019-1</t>
@@ -3707,7 +3659,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>概率论与数理统计聂世谦 (1-13周) 金融学2020-1-2班,物流管理2020-1-2</t>
+          <t>概率论与数理统计聂世谦 (1,3-13周) 金融学2020-1-2班,物流管理2020-1-2</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3832,7 +3784,11 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>采煤工艺学刘奇 (1-4周) 采矿工程2019-1-2</t>
+        </is>
+      </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -3901,7 +3857,7 @@
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr">
         <is>
-          <t>计算方法李贺 (1-6周) 机械电子工程2020-3-4</t>
+          <t>计算方法李贺 (1,3-6周) 机械电子工程2020-3-4</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr"/>
@@ -3938,7 +3894,7 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>管理学(A)姜秀娟 (1-12周) 大数据管理与应用2021-1-2</t>
+          <t>管理学(A)姜秀娟 (1,3-12周) 大数据管理与应用2021-1-2</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -3969,12 +3925,12 @@
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr">
         <is>
-          <t>计量经济学（A）陶敏 (1-11周) 国际经济与贸易2019-1-2</t>
+          <t>计量经济学（A）陶敏 (1,3-11周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>计量经济学(B)姜涛 (1-7周) 会计学2019-1-2</t>
+          <t>计量经济学(B)姜涛 (1,3-7周) 会计学2019-1-2</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr"/>
@@ -4012,7 +3968,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>大地测量学基础张燕 (1-10周) 测绘工程2020-4-5</t>
+          <t>大地测量学基础张燕 (1-7,9-10周) 测绘工程2020-4-5</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -4029,7 +3985,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>GNSS测量与数据处理苏醒 (1-9周) 遥感科学与技术2019-2</t>
+          <t>GNSS测量与数据处理苏醒 (1-4,6,9周) 遥感科学与技术2019-2</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -4055,7 +4011,7 @@
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr">
         <is>
-          <t>GNSS测量与数据处理刘智敏 (1-9周) 测绘工程2019-1-3</t>
+          <t>GNSS测量与数据处理刘智敏 (1,3-6,8-9周) 测绘工程2019-1-3</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr"/>
@@ -4094,11 +4050,7 @@
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>采煤工艺学刘奇 (1-4周) 采矿工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
           <t>矿井通风与安全程卫民 (1-4周) 采矿工程2019-1-2</t>
@@ -4123,7 +4075,7 @@
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr">
         <is>
-          <t>采煤工艺学刘奇 (1-4周) 采矿工程2019-1-2</t>
+          <t>采煤工艺学刘奇 (1,3-4周) 采矿工程2019-1-2</t>
         </is>
       </c>
       <c r="X43" t="inlineStr"/>
@@ -4323,7 +4275,7 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>金属热处理工艺学王淑峰 (1-7周) 金属材料工程2019-5</t>
+          <t>金属热处理工艺学王淑峰 (1,3-7周) 金属材料工程2019-5</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -4427,12 +4379,12 @@
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr">
         <is>
-          <t>过程流体机械鲍怀谦,孙静 (1-9周) 过程装备与控制工程2019-1-2</t>
+          <t>过程流体机械鲍怀谦,孙静 (1,3-9周) 过程装备与控制工程2019-1-2</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>机械设计(A)高丽 (1-9,14周) 材料成型及控制工程2019-1</t>
+          <t>机械设计(A)高丽 (1,3-9,14周) 材料成型及控制工程2019-1</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -4732,7 +4684,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>材料分析测试技术迟静 (1-6周) 金属材料工程2019-3</t>
+          <t>材料分析测试技术迟静 (1,3-6周) 金属材料工程2019-3</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
@@ -4781,12 +4733,12 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>聚合物加工原理与成型工艺董琪 (1-2周) 高分子材料与工程2019-3-4</t>
+          <t>聚合物加工原理与成型工艺董琪 (1周) 高分子材料与工程2019-3-4</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>材料腐蚀与防护岳丽杰 (1-9周) 金属材料工程2019-3-4</t>
+          <t>材料腐蚀与防护岳丽杰 (1,3-9周) 金属材料工程2019-3-4</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -4825,7 +4777,7 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>材料科学基础（B）丁建旭 (1-8周) 新能源材料与器件2020-1</t>
+          <t>材料科学基础（B）丁建旭 (1,3-8周) 新能源材料与器件2020-1</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr"/>
@@ -4908,7 +4860,11 @@
           <t>误差理论与测量平差基础石波 (1-12周) 测绘工程2020-4-5</t>
         </is>
       </c>
-      <c r="AB53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>新产品开发流程及就业指导苗永平 (1-8周) 临班199</t>
+        </is>
+      </c>
       <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="inlineStr"/>
       <c r="AE53" t="inlineStr"/>
@@ -4943,7 +4899,7 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>海洋生物技术李慧娟 (1-8周) 生物工程2019-1-2</t>
+          <t>海洋生物技术李慧娟 (1,3-8周) 生物工程2019-1-2</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4983,7 +4939,7 @@
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>煤化工工艺学梁鹏 (1-8周) 化学工程与工艺2019-1-3</t>
+          <t>煤化工工艺学梁鹏 (1-5,7-8周) 化学工程与工艺2019-1-3</t>
         </is>
       </c>
       <c r="U54" t="inlineStr"/>
@@ -4991,7 +4947,7 @@
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr">
         <is>
-          <t>海洋生物技术李慧娟 (1-8周) 生物工程2019-1-2</t>
+          <t>海洋生物技术李慧娟 (1,3-8周) 生物工程2019-1-2</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
@@ -5117,12 +5073,12 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>汽轮机原理李志敏 (1-9周) 能源与动力工程2019-1-3</t>
+          <t>汽轮机原理李志敏 (1,3-9周) 能源与动力工程2019-1-3</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>普通化学赵媛媛 (1-8周) 能源与动力工程2019-1-3</t>
+          <t>普通化学赵媛媛 (1,3-8周) 能源与动力工程2019-1-3</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -5233,7 +5189,7 @@
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>数控技术于涛 (1-7周) 机械设计制造及其自动化2019-3-5</t>
+          <t>数控技术于涛 (1-5,7周) 机械设计制造及其自动化2019-3-5</t>
         </is>
       </c>
       <c r="T57" t="inlineStr"/>
@@ -5307,7 +5263,7 @@
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr">
         <is>
-          <t>计量经济学（A）武传宝 (1-10周) 投资学2019-1-2</t>
+          <t>计量经济学（A）武传宝 (1,3-10周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr"/>
@@ -5445,7 +5401,7 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>机械设计基础（A）张弘斌 (1-3周) 金属材料工程2020-3</t>
+          <t>机械设计基础（A）张弘斌 (1,3周) 金属材料工程2020-3</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr"/>
@@ -5671,7 +5627,7 @@
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr">
         <is>
-          <t>普通化学（A）高猛 (1-8周) 环境工程2021-3</t>
+          <t>普通化学（A）高猛 (1,3-8周) 环境工程2021-3</t>
         </is>
       </c>
       <c r="X63" t="inlineStr">
@@ -5799,7 +5755,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>金属材料工程专业英语吴楠楠 (1-8周) 金属材料工程2019-1</t>
+          <t>金属材料工程专业英语吴楠楠 (1,3-8周) 金属材料工程2019-1</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -5887,7 +5843,7 @@
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr">
         <is>
-          <t>聚合物加工原理与成型工艺董琪 (1-2周) 高分子材料与工程2019-3-4</t>
+          <t>聚合物加工原理与成型工艺董琪 (1周) 高分子材料与工程2019-3-4</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr"/>
@@ -6014,7 +5970,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>大地测量学基础郭英 (1-10周) 测绘工程2020-1</t>
+          <t>大地测量学基础郭英 (1-6,8-10周) 测绘工程2020-1</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -6048,7 +6004,7 @@
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr">
         <is>
-          <t>大地测量学基础郭英 (1-10周) 测绘工程2020-1</t>
+          <t>大地测量学基础郭英 (1-6,8-10周) 测绘工程2020-1</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
@@ -6125,7 +6081,7 @@
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr">
         <is>
-          <t>普通化学（A）崔立强 (1-8周) 环境工程2021-1-2</t>
+          <t>普通化学（A）崔立强 (1,3-8周) 环境工程2021-1-2</t>
         </is>
       </c>
       <c r="X69" t="inlineStr">
@@ -6259,7 +6215,7 @@
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr">
         <is>
-          <t>化工安全与环保徐冬梅 (1-8周) 化学工程与工艺2019-3</t>
+          <t>化工安全与环保徐冬梅 (1,3-8周) 化学工程与工艺2019-3</t>
         </is>
       </c>
       <c r="T71" t="inlineStr"/>
@@ -6310,7 +6266,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>大地测量学基础韩晓冬 (1-10周) 测绘工程2020-2</t>
+          <t>大地测量学基础韩晓冬 (1,3-6,8-10周) 测绘工程2020-2</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -6332,7 +6288,7 @@
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr">
         <is>
-          <t>大地测量学基础韩晓冬 (1-10周) 测绘工程2020-2</t>
+          <t>大地测量学基础韩晓冬 (1-6,8-10周) 测绘工程2020-2</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
@@ -6345,7 +6301,7 @@
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr">
         <is>
-          <t>微波遥感王志勇 (1-9周) 遥感科学与技术2019-1-3</t>
+          <t>微波遥感王志勇 (1,3-9周) 遥感科学与技术2019-1-3</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr"/>
@@ -6459,12 +6415,12 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>有机化学黄小文 (1-16周) 材料化学2020-2</t>
+          <t>有机化学黄小文 (1,3-16周) 材料化学2020-2</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>金属材料工程专业英语白雪 (1-8周) 金属材料工程2019-2</t>
+          <t>金属材料工程专业英语白雪 (1,3-8周) 金属材料工程2019-2</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -6495,7 +6451,7 @@
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr">
         <is>
-          <t>金属热处理工艺学孙金全 (1-7周) 金属材料工程2019-1-2</t>
+          <t>金属热处理工艺学孙金全 (1,3-7周) 金属材料工程2019-1-2</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr"/>
@@ -6540,7 +6496,7 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>数据挖掘张福平 (1-9周) 电子商务2019-1</t>
+          <t>数据挖掘张福平 (1,3-9周) 电子商务2019-1</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -6748,7 +6704,7 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>汽车理论李玉善 (1-10周) 车辆工程2019-1</t>
+          <t>汽车理论李玉善 (1-4,6-10周) 车辆工程2019-1</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -7009,12 +6965,12 @@
       <c r="V81" t="inlineStr"/>
       <c r="W81" t="inlineStr">
         <is>
-          <t>公共艺术甄珍 (1-4周) 环境设计2019-2</t>
+          <t>公共艺术甄珍 (1-3周) 环境设计2019-2</t>
         </is>
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>公共艺术甄珍 (1-4周) 环境设计2019-2</t>
+          <t>公共艺术甄珍 (1-3周) 环境设计2019-2</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr"/>
@@ -7336,7 +7292,7 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>空间大地测量学基础孔巧丽 (1-9周) 测绘工程2019-1-2</t>
+          <t>空间大地测量学基础孔巧丽 (1,3-9周) 测绘工程2019-1-2</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -7426,12 +7382,12 @@
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr">
         <is>
-          <t>图形创意孙德波 (1-6周) 视觉传达设计2020-2 图形创意刘佳 (1-6周) 视觉传达设计2020-1</t>
+          <t>图形创意孙德波 (1-5周) 视觉传达设计2020-2 图形创意刘佳 (1-5周) 视觉传达设计2020-1</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>图形创意孙德波 (1-6周) 视觉传达设计2020-2 图形创意刘佳 (1-6周) 视觉传达设计2020-1</t>
+          <t>图形创意孙德波 (1-5周) 视觉传达设计2020-2 图形创意刘佳 (1-5周) 视觉传达设计2020-1</t>
         </is>
       </c>
       <c r="T87" t="inlineStr">
@@ -7827,7 +7783,7 @@
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>GNSS测量与数据处理刘智敏 (1-9周) 遥感科学与技术2019-1</t>
+          <t>GNSS测量与数据处理刘智敏 (1-6,8-9周) 遥感科学与技术2019-1</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -7840,7 +7796,7 @@
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr">
         <is>
-          <t>GNSS测量与数据处理刘智敏 (1-9周) 遥感科学与技术2019-1</t>
+          <t>GNSS测量与数据处理刘智敏 (1-6,8-9周) 遥感科学与技术2019-1</t>
         </is>
       </c>
       <c r="O93" t="inlineStr"/>
@@ -7964,15 +7920,23 @@
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>工程测量学常乐 (1-12周) 测绘工程2019-2</t>
+          <t>工程测量学常乐 (1-7,9-12周) 测绘工程2019-2</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-2)陈昕 (1-16周) 资源勘查工程2021-1</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-2)陈昕 (1-16周) 电子信息科学与技术2021-1</t>
+        </is>
+      </c>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
@@ -8139,7 +8103,7 @@
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>工程测量学于胜文 (1-12周) 测绘工程2019-1</t>
+          <t>工程测量学于胜文 (1-6,8-12周) 测绘工程2019-1</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
